--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0045FF1-0410-4B4A-9252-1E58E15D0812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE85EFC5-938C-3C4F-864B-6AF4CC5EC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2333,39 +2333,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>71.516000000000005</v>
+    <v>69.680000000000007</v>
     <v>42.610100000000003</v>
-    <v>1.1596</v>
-    <v>-0.12</v>
-    <v>-1.794E-3</v>
+    <v>1.1513</v>
+    <v>1.49</v>
+    <v>2.1867000000000001E-2</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
-    <v>12595</v>
+    <v>13202</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>67.319999999999993</v>
+    <v>69.680000000000007</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.976829224215</v>
+    <v>45065.943345798434</v>
     <v>0</v>
-    <v>66.510000000000005</v>
-    <v>52359950000</v>
+    <v>68.19</v>
+    <v>54673211406</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>67.319999999999993</v>
-    <v>62.578099999999999</v>
-    <v>66.900000000000006</v>
-    <v>66.78</v>
-    <v>66.78</v>
-    <v>784066300</v>
+    <v>68.5</v>
+    <v>56.189100000000003</v>
+    <v>68.14</v>
+    <v>69.63</v>
+    <v>69.63</v>
+    <v>785196200</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>2876606</v>
-    <v>4023419</v>
+    <v>4745530</v>
+    <v>4471578</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2953,10 +2953,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U91" sqref="U91"/>
+      <selection pane="bottomRight" activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4060,15 +4060,15 @@
       </c>
       <c r="X16" s="46">
         <f>Y101/Q3</f>
-        <v>15.666312608461492</v>
+        <v>16.358449944946443</v>
       </c>
       <c r="Y16" s="46">
         <f>Y101/Q28</f>
-        <v>86.288645352669747</v>
+        <v>90.100875751483187</v>
       </c>
       <c r="Z16" s="47">
         <f>Y101/Q106</f>
-        <v>43.495555740156171</v>
+        <v>45.417188408373484</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="Y95" s="58" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.1596</v>
+        <v>1.1513</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="Y97" s="56">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>9.0870780000000012E-2</v>
+        <v>9.0513465000000015E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="Y100" s="54">
         <f>Y99/Y103</f>
-        <v>1.8527283411764375E-2</v>
+        <v>1.775730121771962E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="Y101" s="37" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>52359950000</v>
+        <v>54673211406</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="Y102" s="54">
         <f>Y101/Y103</f>
-        <v>0.98147271658823565</v>
+        <v>0.98224269878228043</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="Y103" s="59">
         <f>Y99+Y101</f>
-        <v>53348350000</v>
+        <v>55661611406</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="Y105" s="24">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.9460220831393517E-2</v>
+        <v>8.9167872729409473E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9138,7 +9138,7 @@
       <c r="U107" s="27"/>
       <c r="V107" s="30">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>53439536037.372856</v>
+        <v>53683005958.797791</v>
       </c>
       <c r="W107" s="31" t="s">
         <v>144</v>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="V108" s="30">
         <f>V107+V106</f>
-        <v>56800242665.75946</v>
+        <v>57043712587.184395</v>
       </c>
       <c r="W108" s="31" t="s">
         <v>139</v>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="Y108" s="35">
         <f>Y105</f>
-        <v>8.9460220831393517E-2</v>
+        <v>8.9167872729409473E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="S110" s="37">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>43560229030.054131</v>
+        <v>43773427157.099136</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="S113" s="37">
         <f>S110+S111-S112</f>
-        <v>45123529030.054131</v>
+        <v>45336727157.099136</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="S115" s="61">
         <f>S113/S114</f>
-        <v>57.006893810777044</v>
+        <v>57.276238058675212</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="S116" s="60" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price",TRUE)</f>
-        <v>66.78</v>
+        <v>69.63</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="S117" s="40">
         <f>S115/S116-1</f>
-        <v>-0.14634780157566574</v>
+        <v>-0.17742010543335895</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE85EFC5-938C-3C4F-864B-6AF4CC5EC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BB870-238B-1642-AAF4-6BB7A97D3EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2333,13 +2333,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>69.680000000000007</v>
+    <v>71.290000000000006</v>
     <v>42.610100000000003</v>
-    <v>1.1513</v>
-    <v>1.49</v>
-    <v>2.1867000000000001E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.1483000000000001</v>
+    <v>0.6</v>
+    <v>8.933E-3</v>
+    <v>-0.02</v>
+    <v>-2.9510000000000002E-4</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
     <v>13202</v>
@@ -2347,25 +2347,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>69.680000000000007</v>
+    <v>68.819999999999993</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.943345798434</v>
+    <v>45072.999424467191</v>
     <v>0</v>
-    <v>68.19</v>
-    <v>54673211406</v>
+    <v>67.3</v>
+    <v>53212746474</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>68.5</v>
-    <v>56.189100000000003</v>
-    <v>68.14</v>
-    <v>69.63</v>
-    <v>69.63</v>
+    <v>67.36</v>
+    <v>55.389299999999999</v>
+    <v>67.17</v>
+    <v>67.77</v>
+    <v>67.75</v>
     <v>785196200</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>4745530</v>
-    <v>4471578</v>
+    <v>5343667</v>
+    <v>5120401</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2956,7 +2956,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="M96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S99" sqref="S99"/>
+      <selection pane="bottomRight" activeCell="S103" sqref="S103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4060,15 +4060,15 @@
       </c>
       <c r="X16" s="46">
         <f>Y101/Q3</f>
-        <v>16.358449944946443</v>
+        <v>15.921472824486864</v>
       </c>
       <c r="Y16" s="46">
         <f>Y101/Q28</f>
-        <v>90.100875751483187</v>
+        <v>87.694044947264331</v>
       </c>
       <c r="Z16" s="47">
         <f>Y101/Q106</f>
-        <v>45.417188408373484</v>
+        <v>44.203976137232097</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="Y95" s="58" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.1513</v>
+        <v>1.1483000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="Y97" s="56">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>9.0513465000000015E-2</v>
+        <v>9.0384315000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="Y100" s="54">
         <f>Y99/Y103</f>
-        <v>1.775730121771962E-2</v>
+        <v>1.8235776626498671E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="Y101" s="37" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>54673211406</v>
+        <v>53212746474</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="Y102" s="54">
         <f>Y101/Y103</f>
-        <v>0.98224269878228043</v>
+        <v>0.98176422337350133</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="Y103" s="59">
         <f>Y99+Y101</f>
-        <v>55661611406</v>
+        <v>54201146474</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="Y105" s="24">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.9167872729409473E-2</v>
+        <v>8.9004820522841754E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9138,7 +9138,7 @@
       <c r="U107" s="27"/>
       <c r="V107" s="30">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>53683005958.797791</v>
+        <v>53819763354.651215</v>
       </c>
       <c r="W107" s="31" t="s">
         <v>144</v>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="V108" s="30">
         <f>V107+V106</f>
-        <v>57043712587.184395</v>
+        <v>57180469983.037819</v>
       </c>
       <c r="W108" s="31" t="s">
         <v>139</v>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="Y108" s="35">
         <f>Y105</f>
-        <v>8.9167872729409473E-2</v>
+        <v>8.9004820522841754E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="S110" s="37">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>43773427157.099136</v>
+        <v>43893187936.24649</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="S113" s="37">
         <f>S110+S111-S112</f>
-        <v>45336727157.099136</v>
+        <v>45456487936.24649</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="S115" s="61">
         <f>S113/S114</f>
-        <v>57.276238058675212</v>
+        <v>57.427538060388329</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="S116" s="60" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price",TRUE)</f>
-        <v>69.63</v>
+        <v>67.77</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="S117" s="40">
         <f>S115/S116-1</f>
-        <v>-0.17742010543335895</v>
+        <v>-0.15261121351057505</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BB870-238B-1642-AAF4-6BB7A97D3EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49E8C8D-7349-7549-9F68-45128B143E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2333,13 +2333,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>71.290000000000006</v>
+    <v>74.769900000000007</v>
     <v>42.610100000000003</v>
-    <v>1.1483000000000001</v>
-    <v>0.6</v>
-    <v>8.933E-3</v>
-    <v>-0.02</v>
-    <v>-2.9510000000000002E-4</v>
+    <v>1.1429</v>
+    <v>0.75</v>
+    <v>1.0546999999999999E-2</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
     <v>13202</v>
@@ -2347,25 +2345,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>68.819999999999993</v>
+    <v>72.239999999999995</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999424467191</v>
+    <v>45099.998255462502</v>
     <v>0</v>
-    <v>67.3</v>
-    <v>53212746474</v>
+    <v>70.81</v>
+    <v>56424198932</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>67.36</v>
-    <v>55.389299999999999</v>
-    <v>67.17</v>
-    <v>67.77</v>
-    <v>67.75</v>
+    <v>71.11</v>
+    <v>59.256700000000002</v>
+    <v>71.11</v>
+    <v>71.86</v>
     <v>785196200</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>5343667</v>
-    <v>5120401</v>
+    <v>28</v>
+    <v>5614702</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2397,8 +2394,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2419,7 +2414,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2436,7 +2430,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2447,16 +2441,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2522,19 +2513,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2579,9 +2564,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2589,9 +2571,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2956,7 +2935,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="M96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S103" sqref="S103"/>
+      <selection pane="bottomRight" activeCell="P116" sqref="P116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4060,15 +4039,15 @@
       </c>
       <c r="X16" s="46">
         <f>Y101/Q3</f>
-        <v>15.921472824486864</v>
+        <v>16.882352621626474</v>
       </c>
       <c r="Y16" s="46">
         <f>Y101/Q28</f>
-        <v>87.694044947264331</v>
+        <v>92.986484726433744</v>
       </c>
       <c r="Z16" s="47">
         <f>Y101/Q106</f>
-        <v>44.203976137232097</v>
+        <v>46.871738604419342</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8416,7 +8395,7 @@
       </c>
       <c r="Y95" s="58" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.1483000000000001</v>
+        <v>1.1429</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8535,7 +8514,7 @@
       </c>
       <c r="Y97" s="56">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>9.0384315000000007E-2</v>
+        <v>9.0151845000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8712,7 +8691,7 @@
       </c>
       <c r="Y100" s="54">
         <f>Y99/Y103</f>
-        <v>1.8235776626498671E-2</v>
+        <v>1.7215733452001884E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8772,7 +8751,7 @@
       </c>
       <c r="Y101" s="37" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>53212746474</v>
+        <v>56424198932</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8832,7 +8811,7 @@
       </c>
       <c r="Y102" s="54">
         <f>Y101/Y103</f>
-        <v>0.98176422337350133</v>
+        <v>0.98278426654799811</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8892,7 +8871,7 @@
       </c>
       <c r="Y103" s="59">
         <f>Y99+Y101</f>
-        <v>54201146474</v>
+        <v>57412598932</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9028,7 +9007,7 @@
       </c>
       <c r="Y105" s="24">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.9004820522841754E-2</v>
+        <v>8.8853516579842348E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9138,7 +9117,7 @@
       <c r="U107" s="27"/>
       <c r="V107" s="30">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>53819763354.651215</v>
+        <v>53947291842.399765</v>
       </c>
       <c r="W107" s="31" t="s">
         <v>144</v>
@@ -9169,7 +9148,7 @@
       </c>
       <c r="V108" s="30">
         <f>V107+V106</f>
-        <v>57180469983.037819</v>
+        <v>57307998470.786369</v>
       </c>
       <c r="W108" s="31" t="s">
         <v>139</v>
@@ -9179,7 +9158,7 @@
       </c>
       <c r="Y108" s="35">
         <f>Y105</f>
-        <v>8.9004820522841754E-2</v>
+        <v>8.8853516579842348E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9194,7 +9173,7 @@
       </c>
       <c r="S110" s="37">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>43893187936.24649</v>
+        <v>44004871361.926102</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9221,7 +9200,7 @@
       </c>
       <c r="S113" s="37">
         <f>S110+S111-S112</f>
-        <v>45456487936.24649</v>
+        <v>45568171361.926102</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9239,7 +9218,7 @@
       </c>
       <c r="S115" s="61">
         <f>S113/S114</f>
-        <v>57.427538060388329</v>
+        <v>57.568633522667021</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9248,7 +9227,7 @@
       </c>
       <c r="S116" s="60" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price",TRUE)</f>
-        <v>67.77</v>
+        <v>71.86</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9257,7 +9236,7 @@
       </c>
       <c r="S117" s="40">
         <f>S115/S116-1</f>
-        <v>-0.15261121351057505</v>
+        <v>-0.19887790811763117</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49E8C8D-7349-7549-9F68-45128B143E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E6023-0BBC-5740-8336-48F36B09C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2333,11 +2333,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>74.769900000000007</v>
+    <v>75.3</v>
     <v>42.610100000000003</v>
-    <v>1.1429</v>
-    <v>0.75</v>
-    <v>1.0546999999999999E-2</v>
+    <v>1.1513</v>
+    <v>0.76</v>
+    <v>1.0225E-2</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
     <v>13202</v>
@@ -2345,24 +2345,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>72.239999999999995</v>
+    <v>75.3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.998255462502</v>
+    <v>45106.99199977969</v>
     <v>0</v>
-    <v>70.81</v>
-    <v>56424198932</v>
+    <v>73.900000000000006</v>
+    <v>58960382658</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>71.11</v>
-    <v>59.256700000000002</v>
-    <v>71.11</v>
-    <v>71.86</v>
+    <v>74.540000000000006</v>
+    <v>61.920200000000001</v>
+    <v>74.33</v>
+    <v>75.09</v>
     <v>785196200</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>28</v>
-    <v>5614702</v>
+    <v>270</v>
+    <v>6065226</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2515,10 +2515,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -2935,7 +2935,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="M96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P116" sqref="P116"/>
+      <selection pane="bottomRight" activeCell="S103" sqref="S103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4039,15 +4039,15 @@
       </c>
       <c r="X16" s="46">
         <f>Y101/Q3</f>
-        <v>16.882352621626474</v>
+        <v>17.641189234037462</v>
       </c>
       <c r="Y16" s="46">
         <f>Y101/Q28</f>
-        <v>92.986484726433744</v>
+        <v>97.166088757415949</v>
       </c>
       <c r="Z16" s="47">
         <f>Y101/Q106</f>
-        <v>46.871738604419342</v>
+        <v>48.978553462369163</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="Y95" s="58" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.1429</v>
+        <v>1.1513</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="Y97" s="56">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>9.0151845000000008E-2</v>
+        <v>9.0513465000000015E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="Y100" s="54">
         <f>Y99/Y103</f>
-        <v>1.7215733452001884E-2</v>
+        <v>1.6487407353018214E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="Y101" s="37" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56424198932</v>
+        <v>58960382658</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="Y102" s="54">
         <f>Y101/Y103</f>
-        <v>0.98278426654799811</v>
+        <v>0.98351259264698176</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="Y103" s="59">
         <f>Y99+Y101</f>
-        <v>57412598932</v>
+        <v>59948782658</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="Y105" s="24">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.8853516579842348E-2</v>
+        <v>8.9264101280576214E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9117,7 +9117,7 @@
       <c r="U107" s="27"/>
       <c r="V107" s="30">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>53947291842.399765</v>
+        <v>53602621455.120735</v>
       </c>
       <c r="W107" s="31" t="s">
         <v>144</v>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="V108" s="30">
         <f>V107+V106</f>
-        <v>57307998470.786369</v>
+        <v>56963328083.507339</v>
       </c>
       <c r="W108" s="31" t="s">
         <v>139</v>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="Y108" s="35">
         <f>Y105</f>
-        <v>8.8853516579842348E-2</v>
+        <v>8.9264101280576214E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="S110" s="37">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>44004871361.926102</v>
+        <v>43703035453.43116</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="S113" s="37">
         <f>S110+S111-S112</f>
-        <v>45568171361.926102</v>
+        <v>45266335453.43116</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="S115" s="61">
         <f>S113/S114</f>
-        <v>57.568633522667021</v>
+        <v>57.187308569727499</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="S116" s="60" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price",TRUE)</f>
-        <v>71.86</v>
+        <v>75.09</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="S117" s="40">
         <f>S115/S116-1</f>
-        <v>-0.19887790811763117</v>
+        <v>-0.23841645266044087</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E6023-0BBC-5740-8336-48F36B09C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4817C-F5D8-024D-9B8A-13433D1A16C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -399,9 +399,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -773,19 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -824,46 +837,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -882,6 +855,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -922,120 +904,110 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,7 +1049,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1087,9 +1059,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
-              <a:t>FTNT</a:t>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Fortinet</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1106,7 +1079,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1126,10 +1099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11326255281875702"/>
-          <c:y val="0.1451256885616666"/>
-          <c:w val="0.8230910505241823"/>
-          <c:h val="0.71840285605754117"/>
+          <c:x val="9.8732673267326723E-2"/>
+          <c:y val="0.15972473279369476"/>
+          <c:w val="0.83658085808580862"/>
+          <c:h val="0.62036357865737712"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1183,12 +1156,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$Q$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>123466000</c:v>
                 </c:pt>
@@ -1236,13 +1269,16 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3342200000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4725000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4445-2140-82E0-0F5A3FFD57E3}"/>
+              <c16:uniqueId val="{00000000-35A1-144F-BDA2-3B2C0B1B2E9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1251,11 +1287,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1293,66 +1329,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$Q$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1761000</c:v>
+                  <c:v>-5344000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12401000</c:v>
+                  <c:v>-21842000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16099000</c:v>
+                  <c:v>7363000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35429000</c:v>
+                  <c:v>60179000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63852000</c:v>
+                  <c:v>41245000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102585000</c:v>
+                  <c:v>62492000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>121566000</c:v>
+                  <c:v>66836000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96870000</c:v>
+                  <c:v>44273000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88970000</c:v>
+                  <c:v>25343000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53889000</c:v>
+                  <c:v>7987000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98971000</c:v>
+                  <c:v>32187000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192952000</c:v>
+                  <c:v>31399000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>333100000</c:v>
+                  <c:v>332200000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>483300000</c:v>
+                  <c:v>326500000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>628200000</c:v>
+                  <c:v>488500000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>720200000</c:v>
+                  <c:v>606800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>857000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4445-2140-82E0-0F5A3FFD57E3}"/>
+              <c16:uniqueId val="{00000001-35A1-144F-BDA2-3B2C0B1B2E9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1361,11 +1460,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1403,12 +1502,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$Q$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$R$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2222000</c:v>
                 </c:pt>
@@ -1456,13 +1615,16 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1203800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1449000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4445-2140-82E0-0F5A3FFD57E3}"/>
+              <c16:uniqueId val="{00000002-35A1-144F-BDA2-3B2C0B1B2E9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1476,11 +1638,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="602858575"/>
-        <c:axId val="586744927"/>
+        <c:axId val="1061840367"/>
+        <c:axId val="1061842095"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="602858575"/>
+        <c:axId val="1061840367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1670,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1520,7 +1682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586744927"/>
+        <c:crossAx val="1061842095"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1528,9 +1690,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="586744927"/>
+        <c:axId val="1061842095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1576,7 +1739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602858575"/>
+        <c:crossAx val="1061840367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,10 +1757,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24407328168432421"/>
-          <c:y val="0.89824883236618147"/>
-          <c:w val="0.53174277897645505"/>
-          <c:h val="5.9915030641058506E-2"/>
+          <c:x val="0.34468885943712474"/>
+          <c:y val="0.88173832776677452"/>
+          <c:w val="0.31326254515215302"/>
+          <c:h val="6.6418814263011161E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1613,7 +1776,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2176,23 +2339,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>35276</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>11287</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>14111</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA15A168-897E-BF8E-4175-AB27A215D55E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E649D5-6434-23C4-51DA-28166DA2BDEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,6 +2374,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2929,24 +3146,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S103" sqref="S103"/>
+      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="17" width="15" customWidth="1"/>
-    <col min="18" max="22" width="19" customWidth="1"/>
-    <col min="23" max="26" width="21" customWidth="1"/>
+    <col min="2" max="18" width="15" customWidth="1"/>
+    <col min="19" max="23" width="21.1640625" customWidth="1"/>
+    <col min="24" max="27" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2998,7 +3215,7 @@
       <c r="Q1" s="8">
         <v>2021</v>
       </c>
-      <c r="R1" s="21">
+      <c r="R1" s="8">
         <v>2022</v>
       </c>
       <c r="S1" s="21">
@@ -3013,72 +3230,76 @@
       <c r="V1" s="21">
         <v>2026</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+      <c r="W1" s="21">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="R2" s="9"/>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="V2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" ht="40" x14ac:dyDescent="0.25">
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:39" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3130,147 +3351,154 @@
       <c r="Q3" s="1">
         <v>3342200000</v>
       </c>
-      <c r="R3" s="22">
-        <v>4098000000</v>
+      <c r="R3" s="1">
+        <v>4725000000</v>
       </c>
       <c r="S3" s="22">
-        <v>5404000000</v>
+        <v>5461000000</v>
       </c>
       <c r="T3" s="22">
-        <v>6461000000</v>
+        <v>6500000000</v>
       </c>
       <c r="U3" s="22">
-        <v>7754000000</v>
+        <v>7791000000</v>
       </c>
       <c r="V3" s="22">
-        <v>9298000000</v>
-      </c>
-      <c r="W3" s="42" t="s">
+        <v>9360000000</v>
+      </c>
+      <c r="W3" s="22">
+        <v>10622000000</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="X3" s="43" t="s">
+      <c r="AA3" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="Y3" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z3" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>0.25837072554387452</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>0.36317469716669026</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>0.19039524814557751</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:L4" si="0">(F3/E3)-1</f>
         <v>0.28788846359796127</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>0.33532904624633497</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>0.23078537557429368</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>0.15302104981082709</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.25201975631280504</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>0.31011833367083619</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="65">
         <f t="shared" si="0"/>
         <v>0.26373074346952441</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="65">
         <f t="shared" ref="M4" si="1">(M3/L3)-1</f>
         <v>0.17208687491326535</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="65">
         <f t="shared" ref="N4" si="2">(N3/M3)-1</f>
         <v>0.2048724689450343</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="65">
         <f t="shared" ref="O4" si="3">(O3/N3)-1</f>
         <v>0.19709082833666436</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="65">
         <f t="shared" ref="P4" si="4">(P3/O3)-1</f>
         <v>0.20322790093683341</v>
       </c>
-      <c r="Q4" s="16">
-        <f t="shared" ref="Q4:V4" si="5">(Q3/P3)-1</f>
+      <c r="Q4" s="65">
+        <f t="shared" ref="Q4:W4" si="5">(Q3/P3)-1</f>
         <v>0.28823620104841186</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="65">
         <f t="shared" si="5"/>
-        <v>0.22613847166537004</v>
+        <v>0.41373945305487414</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" si="5"/>
-        <v>0.31869204489995129</v>
+        <f>(S3/R3)-1</f>
+        <v>0.15576719576719578</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="5"/>
-        <v>0.19559585492227982</v>
+        <v>0.19025819446987735</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="5"/>
-        <v>0.20012381984212979</v>
+        <v>0.19861538461538464</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="5"/>
-        <v>0.19912303327314929</v>
-      </c>
-      <c r="W4" s="44">
-        <f>(Q4+P4+O4)/3</f>
-        <v>0.2295183101073032</v>
-      </c>
-      <c r="X4" s="44">
-        <f>(Q20+P20+O20)/3</f>
-        <v>0.29905986543761398</v>
-      </c>
-      <c r="Y4" s="44">
-        <f>(Q29+P29+O29)/3</f>
-        <v>0.24039436187017008</v>
-      </c>
-      <c r="Z4" s="44">
-        <f>(Q105+P105+O105)/3</f>
-        <v>0.27221068045512248</v>
-      </c>
-      <c r="AA4" s="16"/>
+        <v>0.20138621486330388</v>
+      </c>
+      <c r="W4" s="16">
+        <f t="shared" si="5"/>
+        <v>0.13482905982905979</v>
+      </c>
+      <c r="X4" s="30">
+        <f>SUM(P4:R4)/3</f>
+        <v>0.30173451834670645</v>
+      </c>
+      <c r="Y4" s="30">
+        <f>SUM(P20:R20)/3</f>
+        <v>0.31019128975899329</v>
+      </c>
+      <c r="Z4" s="30">
+        <f>SUM(P29:R29)/3</f>
+        <v>0.38355612835611685</v>
+      </c>
+      <c r="AA4" s="30">
+        <f>SUM(P106:R106)/3</f>
+        <v>0.26620339074407745</v>
+      </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
-      <c r="AI4" s="17"/>
+      <c r="AG4" s="16"/>
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
-    </row>
-    <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="AM4" s="17"/>
+    </row>
+    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3322,8 +3550,11 @@
       <c r="Q5" s="1">
         <v>783000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <v>1139000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3375,20 +3606,23 @@
       <c r="Q6" s="10">
         <v>2559200000</v>
       </c>
-      <c r="W6" s="42" t="s">
+      <c r="R6" s="10">
+        <v>3333000000</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z6" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="X6" s="43" t="s">
+      <c r="AA6" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z6" s="43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3440,24 +3674,28 @@
       <c r="Q7" s="2">
         <v>0.76570000000000005</v>
       </c>
-      <c r="W7" s="44">
-        <f>Q7</f>
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="X7" s="45">
-        <f>Q21</f>
-        <v>0.2155</v>
-      </c>
-      <c r="Y7" s="45">
-        <f>Q30</f>
-        <v>0.18160000000000001</v>
-      </c>
-      <c r="Z7" s="45">
-        <f>Q106/Q3</f>
-        <v>0.36018191610316558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="R7" s="2">
+        <f>R6/R3</f>
+        <v>0.70539682539682536</v>
+      </c>
+      <c r="X7" s="30">
+        <f>R7</f>
+        <v>0.70539682539682536</v>
+      </c>
+      <c r="Y7" s="31">
+        <f>R21</f>
+        <v>0.22624338624338625</v>
+      </c>
+      <c r="Z7" s="31">
+        <f>R30</f>
+        <v>0.18137566137566138</v>
+      </c>
+      <c r="AA7" s="31">
+        <f>R107/R3</f>
+        <v>0.30666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3509,10 +3747,13 @@
       <c r="Q8" s="1">
         <v>424200000</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <v>512000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3578,20 +3819,24 @@
         <f t="shared" si="6"/>
         <v>0.12692238645203757</v>
       </c>
-      <c r="W9" s="42" t="s">
+      <c r="R9" s="15">
+        <f t="shared" ref="R9" si="7">R8/R3</f>
+        <v>0.10835978835978836</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="X9" s="43" t="s">
+      <c r="Z9" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="43" t="s">
+      <c r="AA9" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="Z9" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3643,24 +3888,27 @@
       <c r="Q10" s="1">
         <v>143500000</v>
       </c>
-      <c r="W10" s="44">
-        <f>Q9</f>
-        <v>0.12692238645203757</v>
-      </c>
-      <c r="X10" s="45">
-        <f>Q13</f>
-        <v>0.44557477110885046</v>
-      </c>
-      <c r="Y10" s="45">
-        <f>Q80</f>
-        <v>6.2204535934414461E-2</v>
-      </c>
-      <c r="Z10" s="45">
-        <f>Q89</f>
-        <v>8.853449823469571E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <v>144000000</v>
+      </c>
+      <c r="X10" s="30">
+        <f>R9</f>
+        <v>0.10835978835978836</v>
+      </c>
+      <c r="Y10" s="31">
+        <f>R13</f>
+        <v>0.3925925925925926</v>
+      </c>
+      <c r="Z10" s="31">
+        <f>R80</f>
+        <v>4.5925925925925926E-2</v>
+      </c>
+      <c r="AA10" s="31">
+        <f>R89</f>
+        <v>5.9470899470899473E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3712,8 +3960,11 @@
       <c r="Q11" s="1">
         <v>1345700000</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <v>1855000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3765,158 +4016,168 @@
       <c r="Q12" s="1">
         <v>1489200000</v>
       </c>
-      <c r="W12" s="42" t="s">
+      <c r="R12" s="1">
+        <v>1855000000</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z12" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="43" t="s">
+      <c r="AA12" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="Y12" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z12" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>0.54308878557659601</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:Q13" si="7">C12/C3</f>
+        <f t="shared" ref="C13:Q13" si="8">C12/C3</f>
         <v>0.59667494818686195</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.49273576308719447</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4545981000733792</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41376549141350677</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.38631520194844732</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.38352893997627607</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4224041397894025</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4636133048792519</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.53690892805478818</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.55477273386580195</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.52770898971858216</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.48595380857206305</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.47722845747147757</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45921985815602839</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.44557477110885046</v>
       </c>
-      <c r="W13" s="44">
-        <f>Q28/Q72</f>
-        <v>0.7762568760394013</v>
-      </c>
-      <c r="X13" s="45">
-        <f>Q28/Q54</f>
-        <v>0.10251558513963271</v>
-      </c>
-      <c r="Y13" s="45">
-        <f>Q22/(Q72+Q56+Q61)</f>
-        <v>0.36743686797356084</v>
-      </c>
-      <c r="Z13" s="19">
-        <f>Q67/Q72</f>
-        <v>6.5507227836766022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="R13" s="15">
+        <f t="shared" ref="R13" si="9">R12/R3</f>
+        <v>0.3925925925925926</v>
+      </c>
+      <c r="X13" s="30">
+        <f>R28/R72</f>
+        <v>-3.0390070921985815</v>
+      </c>
+      <c r="Y13" s="31">
+        <f>R28/R54</f>
+        <v>0.13760436737315351</v>
+      </c>
+      <c r="Z13" s="31">
+        <f>R22/(R72+R56+R61)</f>
+        <v>1.3629943502824859</v>
+      </c>
+      <c r="AA13" s="19">
+        <f>R67/R72</f>
+        <v>-23.085106382978722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3968,20 +4229,23 @@
       <c r="Q15" s="1">
         <v>1913400000</v>
       </c>
-      <c r="W15" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y15" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z15" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <v>2368000000</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z15" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA15" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4033,24 +4297,28 @@
       <c r="Q16" s="1">
         <v>2696400000</v>
       </c>
-      <c r="W16" s="18">
-        <f>(Q35+P35+O35+N35+M35)/5</f>
-        <v>-1.0521812686074624E-2</v>
-      </c>
-      <c r="X16" s="46">
-        <f>Y101/Q3</f>
-        <v>17.641189234037462</v>
-      </c>
-      <c r="Y16" s="46">
-        <f>Y101/Q28</f>
-        <v>97.166088757415949</v>
-      </c>
-      <c r="Z16" s="47">
-        <f>Y101/Q106</f>
-        <v>48.978553462369163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f>R15+R5</f>
+        <v>3507000000</v>
+      </c>
+      <c r="X16" s="18">
+        <f>SUM(N35:R35)/5</f>
+        <v>-2.3148733624502274E-2</v>
+      </c>
+      <c r="Y16" s="33">
+        <f>Z101/R3</f>
+        <v>12.478387864126985</v>
+      </c>
+      <c r="Z16" s="33">
+        <f>Z101/R28</f>
+        <v>68.798579530921813</v>
+      </c>
+      <c r="AA16" s="34">
+        <f>Z101/R107</f>
+        <v>40.690395209109731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4102,8 +4370,11 @@
       <c r="Q17" s="1">
         <v>14900000</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4155,11 +4426,23 @@
       <c r="Q18" s="1">
         <v>84400000</v>
       </c>
-      <c r="W18" s="42" t="s">
+      <c r="R18" s="1">
+        <v>104000000</v>
+      </c>
+      <c r="X18" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z18" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA18" s="29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4211,14 +4494,44 @@
       <c r="Q19" s="10">
         <v>720200000</v>
       </c>
-      <c r="W19" s="48">
-        <f>Q40-Q56-Q61</f>
-        <v>1563300000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="10">
+        <v>1069000000</v>
+      </c>
+      <c r="S19" s="60">
+        <v>1529000000</v>
+      </c>
+      <c r="T19" s="60">
+        <v>1872000000</v>
+      </c>
+      <c r="U19" s="60">
+        <v>2241000000</v>
+      </c>
+      <c r="V19" s="60">
+        <v>3160000000</v>
+      </c>
+      <c r="W19" s="60">
+        <v>3852000000</v>
+      </c>
+      <c r="X19" s="32">
+        <f>R40-R56-R61</f>
+        <v>1221000000</v>
+      </c>
+      <c r="Y19" s="33">
+        <f>Z101/S3</f>
+        <v>10.796627478117561</v>
+      </c>
+      <c r="Z19" s="33">
+        <f>Z101/S28</f>
+        <v>50.350454874466266</v>
+      </c>
+      <c r="AA19" s="34">
+        <f>Z101/S106</f>
+        <v>45.812263137529136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4234,57 +4547,79 @@
         <v>1.2006956953848067</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:G20" si="8">(F19/E19)-1</f>
+        <f t="shared" ref="F20:G20" si="10">(F19/E19)-1</f>
         <v>0.80225239210815991</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.60660590114640112</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" ref="H20" si="9">(H19/G19)-1</f>
+        <f t="shared" ref="H20" si="11">(H19/G19)-1</f>
         <v>0.18502705073841197</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" ref="I20" si="10">(I19/H19)-1</f>
+        <f t="shared" ref="I20" si="12">(I19/H19)-1</f>
         <v>-0.20314890676669461</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" ref="J20" si="11">(J19/I19)-1</f>
+        <f t="shared" ref="J20" si="13">(J19/I19)-1</f>
         <v>-8.1552596263032906E-2</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" ref="K20" si="12">(K19/J19)-1</f>
+        <f t="shared" ref="K20" si="14">(K19/J19)-1</f>
         <v>-0.39430144992694172</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" ref="L20" si="13">(L19/K19)-1</f>
+        <f t="shared" ref="L20" si="15">(L19/K19)-1</f>
         <v>0.83657147098665785</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" ref="M20" si="14">(M19/L19)-1</f>
+        <f t="shared" ref="M20" si="16">(M19/L19)-1</f>
         <v>0.94958119044972777</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" ref="N20" si="15">(N19/M19)-1</f>
+        <f t="shared" ref="N20" si="17">(N19/M19)-1</f>
         <v>0.72633608358555501</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" ref="O20" si="16">(O19/N19)-1</f>
+        <f t="shared" ref="O20" si="18">(O19/N19)-1</f>
         <v>0.4509156409486641</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" ref="P20" si="17">(P19/O19)-1</f>
+        <f t="shared" ref="P20" si="19">(P19/O19)-1</f>
         <v>0.29981378026070771</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" ref="Q20" si="18">(Q19/P19)-1</f>
+        <f t="shared" ref="Q20:W20" si="20">(Q19/P19)-1</f>
         <v>0.14645017510347014</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-    </row>
-    <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="15">
+        <f t="shared" si="20"/>
+        <v>0.48430991391280198</v>
+      </c>
+      <c r="S20" s="16">
+        <f>(S19/R19)-1</f>
+        <v>0.43030869971936392</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="20"/>
+        <v>0.22432962720732497</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="20"/>
+        <v>0.19711538461538458</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="20"/>
+        <v>0.41008478357875955</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="20"/>
+        <v>0.21898734177215196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4336,8 +4671,38 @@
       <c r="Q21" s="2">
         <v>0.2155</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="2">
+        <f>R19/R3</f>
+        <v>0.22624338624338625</v>
+      </c>
+      <c r="S21" s="61">
+        <f>S19/S3</f>
+        <v>0.27998535066837577</v>
+      </c>
+      <c r="T21" s="61">
+        <f t="shared" ref="T21:W21" si="21">T19/T3</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="U21" s="61">
+        <f t="shared" si="21"/>
+        <v>0.28763958413554103</v>
+      </c>
+      <c r="V21" s="61">
+        <f t="shared" si="21"/>
+        <v>0.33760683760683763</v>
+      </c>
+      <c r="W21" s="61">
+        <f t="shared" si="21"/>
+        <v>0.36264356994916214</v>
+      </c>
+      <c r="Z21" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA21" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4389,8 +4754,19 @@
       <c r="Q22" s="10">
         <v>650400000</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="10">
+        <v>965000000</v>
+      </c>
+      <c r="Z22" s="35">
+        <f>(-1*R98)/Z101</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="36">
+        <f>R107/Z101</f>
+        <v>2.4575824217507744E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4442,8 +4818,12 @@
       <c r="Q23" s="2">
         <v>0.1946</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="2">
+        <f>R22/R3</f>
+        <v>0.20423280423280424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4495,8 +4875,11 @@
       <c r="Q24" s="1">
         <v>-22000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <v>-9000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4548,8 +4931,11 @@
       <c r="Q25" s="10">
         <v>628400000</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="R25" s="10">
+        <v>956000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4601,8 +4987,12 @@
       <c r="Q26" s="2">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="R26" s="2">
+        <f>R25/R3</f>
+        <v>0.20232804232804233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4654,8 +5044,11 @@
       <c r="Q27" s="1">
         <v>14100000</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="1">
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4707,10 +5100,28 @@
       <c r="Q28" s="11">
         <v>606800000</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="11">
+        <v>857000000</v>
+      </c>
+      <c r="S28" s="62">
+        <v>1171000000</v>
+      </c>
+      <c r="T28" s="62">
+        <v>1395000000</v>
+      </c>
+      <c r="U28" s="62">
+        <v>1772000000</v>
+      </c>
+      <c r="V28" s="62">
+        <v>2212000000</v>
+      </c>
+      <c r="W28" s="62">
+        <v>2515000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4726,57 +5137,81 @@
         <v>7.1731631128616051</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:G29" si="19">(F28/E28)-1</f>
+        <f t="shared" ref="F29:G29" si="22">(F28/E28)-1</f>
         <v>-0.31462802638794263</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.51514122923990779</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" ref="H29" si="20">(H28/G28)-1</f>
+        <f t="shared" ref="H29" si="23">(H28/G28)-1</f>
         <v>6.9512897650899408E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" ref="I29" si="21">(I28/H28)-1</f>
+        <f t="shared" ref="I29" si="24">(I28/H28)-1</f>
         <v>-0.33758752767969358</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" ref="J29" si="22">(J28/I28)-1</f>
+        <f t="shared" ref="J29" si="25">(J28/I28)-1</f>
         <v>-0.42757436812504235</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ref="K29" si="23">(K28/J28)-1</f>
+        <f t="shared" ref="K29" si="26">(K28/J28)-1</f>
         <v>-0.68484394112772762</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" ref="L29" si="24">(L28/K28)-1</f>
+        <f t="shared" ref="L29" si="27">(L28/K28)-1</f>
         <v>3.0299236258920743</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" ref="M29" si="25">(M28/L28)-1</f>
+        <f t="shared" ref="M29" si="28">(M28/L28)-1</f>
         <v>-2.4481933699941005E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" ref="N29" si="26">(N28/M28)-1</f>
+        <f t="shared" ref="N29" si="29">(N28/M28)-1</f>
         <v>9.5799547756297976</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" ref="O29" si="27">(O28/N28)-1</f>
+        <f t="shared" ref="O29" si="30">(O28/N28)-1</f>
         <v>-1.7158338350391378E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="28">(P28/O28)-1</f>
+        <f t="shared" ref="P29" si="31">(P28/O28)-1</f>
         <v>0.4961715160796325</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="29">(Q28/P28)-1</f>
+        <f t="shared" ref="Q29:W29" si="32">(Q28/P28)-1</f>
         <v>0.24216990788126913</v>
       </c>
-      <c r="Y29" s="15"/>
+      <c r="R29" s="15">
+        <f t="shared" si="32"/>
+        <v>0.41232696110744893</v>
+      </c>
+      <c r="S29" s="16">
+        <f>(S28/R28)-1</f>
+        <v>0.36639439906651106</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="32"/>
+        <v>0.19128949615713076</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="32"/>
+        <v>0.27025089605734776</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="32"/>
+        <v>0.24830699774266374</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="32"/>
+        <v>0.13698010849909581</v>
+      </c>
       <c r="Z29" s="15"/>
-    </row>
-    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="AA29" s="15"/>
+    </row>
+    <row r="30" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4828,8 +5263,32 @@
       <c r="Q30" s="2">
         <v>0.18160000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="R30" s="2">
+        <f>R28/R3</f>
+        <v>0.18137566137566138</v>
+      </c>
+      <c r="S30" s="63">
+        <f>S28/S3</f>
+        <v>0.21442959164988099</v>
+      </c>
+      <c r="T30" s="63">
+        <f t="shared" ref="T30:W30" si="33">T28/T3</f>
+        <v>0.21461538461538462</v>
+      </c>
+      <c r="U30" s="63">
+        <f t="shared" si="33"/>
+        <v>0.22744192016429213</v>
+      </c>
+      <c r="V30" s="63">
+        <f t="shared" si="33"/>
+        <v>0.23632478632478632</v>
+      </c>
+      <c r="W30" s="63">
+        <f t="shared" si="33"/>
+        <v>0.23677273583129355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4881,8 +5340,26 @@
       <c r="Q31" s="12">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="R31" s="12">
+        <v>1.08</v>
+      </c>
+      <c r="S31" s="64">
+        <v>1.49</v>
+      </c>
+      <c r="T31" s="64">
+        <v>1.78</v>
+      </c>
+      <c r="U31" s="64">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="V31" s="64">
+        <v>2.82</v>
+      </c>
+      <c r="W31" s="64">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4934,8 +5411,11 @@
       <c r="Q32" s="12">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R32" s="12">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4987,8 +5467,11 @@
       <c r="Q33" s="1">
         <v>816000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <v>791000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -5040,10 +5523,13 @@
       <c r="Q34" s="1">
         <v>835500000</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <v>791000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="20">
@@ -5051,174 +5537,182 @@
         <v>0</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" ref="D35:G35" si="30">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:G35" si="34">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-2.8351360209767289E-2</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.19908308928379767</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4.7152922522153883E-2</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" ref="H35" si="31">(H34-G34)/G34</f>
+        <f t="shared" ref="H35" si="35">(H34-G34)/G34</f>
         <v>1.5557360133348802E-2</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" ref="I35" si="32">(I34-H34)/H34</f>
+        <f t="shared" ref="I35" si="36">(I34-H34)/H34</f>
         <v>1.1146582977111628E-2</v>
       </c>
       <c r="J35" s="20">
-        <f t="shared" ref="J35" si="33">(J34-I34)/I34</f>
+        <f t="shared" ref="J35" si="37">(J34-I34)/I34</f>
         <v>6.5761700052918547E-3</v>
       </c>
       <c r="K35" s="20">
-        <f t="shared" ref="K35" si="34">(K34-J34)/J34</f>
+        <f t="shared" ref="K35" si="38">(K34-J34)/J34</f>
         <v>4.0475163773192588E-2</v>
       </c>
       <c r="L35" s="20">
-        <f t="shared" ref="L35" si="35">(L34-K34)/K34</f>
+        <f t="shared" ref="L35" si="39">(L34-K34)/K34</f>
         <v>1.1184221731453778E-3</v>
       </c>
       <c r="M35" s="20">
-        <f t="shared" ref="M35" si="36">(M34-L34)/L34</f>
+        <f t="shared" ref="M35" si="40">(M34-L34)/L34</f>
         <v>9.873084644262722E-3</v>
       </c>
       <c r="N35" s="20">
-        <f t="shared" ref="N35" si="37">(N34-M34)/M34</f>
+        <f t="shared" ref="N35" si="41">(N34-M34)/M34</f>
         <v>-2.1782467331914489E-2</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" ref="O35" si="38">(O34-N34)/N34</f>
+        <f t="shared" ref="O35" si="42">(O34-N34)/N34</f>
         <v>4.5924225028702642E-3</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" ref="P35" si="39">(P34-O34)/O34</f>
+        <f t="shared" ref="P35" si="43">(P34-O34)/O34</f>
         <v>-4.1714285714285718E-2</v>
       </c>
       <c r="Q35" s="20">
-        <f t="shared" ref="Q35" si="40">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35:R35" si="44">(Q34-P34)/P34</f>
         <v>-3.5778175313059034E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R35" s="20">
+        <f t="shared" si="44"/>
+        <v>-5.3261520047875523E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="R37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>71411000</v>
@@ -5265,13 +5759,16 @@
       <c r="Q38" s="1">
         <v>1319100000</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <v>1683000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>18750000</v>
@@ -5318,13 +5815,16 @@
       <c r="Q39" s="1">
         <v>1232600000</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <v>528000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>90161000</v>
@@ -5371,13 +5871,16 @@
       <c r="Q40" s="1">
         <v>2551700000</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <v>2211000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>27478000</v>
@@ -5424,13 +5927,16 @@
       <c r="Q41" s="1">
         <v>807700000</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <v>1262000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>14020000</v>
@@ -5477,13 +5983,16 @@
       <c r="Q42" s="1">
         <v>175800000</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <v>265000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>2937000</v>
@@ -5530,13 +6039,16 @@
       <c r="Q43" s="1">
         <v>65400000</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <v>73000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>134596000</v>
@@ -5583,13 +6095,16 @@
       <c r="Q44" s="10">
         <v>3600600000</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R44" s="10">
+        <v>3810000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>2943000</v>
@@ -5636,31 +6151,34 @@
       <c r="Q45" s="1">
         <v>687600000</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <v>899000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1">
         <v>2872000</v>
@@ -5689,28 +6207,31 @@
       <c r="Q46" s="1">
         <v>125100000</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <v>128000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1">
         <v>2117000</v>
@@ -5742,28 +6263,31 @@
       <c r="Q47" s="1">
         <v>63600000</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <v>56000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1">
         <v>2117000</v>
@@ -5795,22 +6319,25 @@
       <c r="Q48" s="1">
         <v>188700000</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <v>184000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1">
         <v>73950000</v>
@@ -5848,19 +6375,22 @@
       <c r="Q49" s="1">
         <v>440800000</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1">
         <v>31671000</v>
@@ -5901,13 +6431,16 @@
       <c r="Q50" s="1">
         <v>342300000</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <v>342300000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>7653000</v>
@@ -5954,13 +6487,16 @@
       <c r="Q51" s="1">
         <v>659100000</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <v>1290000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>10596000</v>
@@ -6007,66 +6543,72 @@
       <c r="Q52" s="1">
         <v>2318500000</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <v>2418000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>145192000</v>
@@ -6113,13 +6655,16 @@
       <c r="Q54" s="11">
         <v>5919100000</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R54" s="11">
+        <v>6228000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>8460000</v>
@@ -6166,84 +6711,90 @@
       <c r="Q55" s="1">
         <v>148400000</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <v>243000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="25">
+        <v>91</v>
+      </c>
+      <c r="C56" s="23">
         <v>0</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="23">
         <v>0</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="23">
         <v>0</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="23">
         <v>0</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="23">
         <v>0</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="23">
         <v>0</v>
       </c>
-      <c r="I56" s="25">
+      <c r="I56" s="23">
         <v>0</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J56" s="23">
         <v>0</v>
       </c>
-      <c r="K56" s="25">
+      <c r="K56" s="23">
         <v>0</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="23">
         <v>0</v>
       </c>
-      <c r="M56" s="25">
+      <c r="M56" s="23">
         <v>0</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N56" s="23">
         <v>0</v>
       </c>
-      <c r="O56" s="25">
+      <c r="O56" s="23">
         <v>0</v>
       </c>
-      <c r="P56" s="25">
+      <c r="P56" s="23">
         <v>0</v>
       </c>
-      <c r="Q56" s="25">
+      <c r="Q56" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R56" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1">
         <v>917000</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1">
         <v>21421000</v>
@@ -6267,18 +6818,21 @@
         <v>4100000</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>89618000</v>
@@ -6325,13 +6879,16 @@
       <c r="Q58" s="1">
         <v>1777400000</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <v>2349000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>22739000</v>
@@ -6378,13 +6935,16 @@
       <c r="Q59" s="1">
         <v>392300000</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <v>486000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>121734000</v>
@@ -6431,66 +6991,72 @@
       <c r="Q60" s="10">
         <v>2318100000</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R60" s="10">
+        <v>3078000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1">
         <v>988400000</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <v>990000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>41637000</v>
@@ -6537,66 +7103,72 @@
       <c r="Q62" s="1">
         <v>1675500000</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <v>2291000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>746000</v>
@@ -6643,13 +7215,16 @@
       <c r="Q64" s="1">
         <v>138700000</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>42383000</v>
@@ -6696,66 +7271,72 @@
       <c r="Q65" s="1">
         <v>2802600000</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <v>3431000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>164117000</v>
@@ -6802,13 +7383,16 @@
       <c r="Q67" s="10">
         <v>5120700000</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R67" s="10">
+        <v>6510000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>20000</v>
@@ -6855,13 +7439,16 @@
       <c r="Q68" s="1">
         <v>200000</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-127514000</v>
@@ -6908,13 +7495,16 @@
       <c r="Q69" s="1">
         <v>-467900000</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <v>-1546000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>783000</v>
@@ -6961,13 +7551,16 @@
       <c r="Q70" s="1">
         <v>-4800000</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <v>-20000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>13418000</v>
@@ -7014,13 +7607,16 @@
       <c r="Q71" s="1">
         <v>1254200000</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <v>-282000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-18925000</v>
@@ -7067,13 +7663,16 @@
       <c r="Q72" s="10">
         <v>781700000</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R72" s="10">
+        <v>-282000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>145192000</v>
@@ -7120,114 +7719,121 @@
       <c r="Q73" s="11">
         <v>5902400000</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R73" s="11">
+        <v>6228000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="R75" s="9"/>
+    </row>
+    <row r="76" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>66</v>
       </c>
@@ -7247,7 +7853,7 @@
         <v>41245000</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H76" s="1">
         <v>66836000</v>
@@ -7279,8 +7885,11 @@
       <c r="Q76" s="1">
         <v>606700000</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <v>857000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
@@ -7332,61 +7941,67 @@
       <c r="Q77" s="1">
         <v>84400000</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <v>104000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1">
         <v>-94000000</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
@@ -7438,77 +8053,84 @@
       <c r="Q79" s="1">
         <v>207900000</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <v>217000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:G80" si="41">B79/B3</f>
+        <f t="shared" ref="B80:G80" si="45">B79/B3</f>
         <v>9.775970712584842E-3</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>6.0064621603182163E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>2.5019948911898994E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>2.9593637824008884E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>2.8688373124399438E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>4.3856209753307382E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" ref="H80" si="42">H79/H3</f>
+        <f t="shared" ref="H80" si="46">H79/H3</f>
         <v>5.7510789128980451E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" ref="I80" si="43">I79/I3</f>
+        <f t="shared" ref="I80" si="47">I79/I3</f>
         <v>7.1362285205356119E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" ref="J80" si="44">J79/J3</f>
+        <f t="shared" ref="J80" si="48">J79/J3</f>
         <v>7.6579383252592281E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" ref="K80" si="45">K79/K3</f>
+        <f t="shared" ref="K80" si="49">K79/K3</f>
         <v>9.4214817075345694E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" ref="L80" si="46">L79/L3</f>
+        <f t="shared" ref="L80" si="50">L79/L3</f>
         <v>9.598468924130675E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" ref="M80" si="47">M79/M3</f>
+        <f t="shared" ref="M80" si="51">M79/M3</f>
         <v>9.1765500725786486E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" ref="N80" si="48">N79/N3</f>
+        <f t="shared" ref="N80" si="52">N79/N3</f>
         <v>9.0439706862091934E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" ref="O80" si="49">O79/O3</f>
+        <f t="shared" ref="O80" si="53">O79/O3</f>
         <v>8.0743901307856414E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" ref="P80" si="50">P79/P3</f>
+        <f t="shared" ref="P80" si="54">P79/P3</f>
         <v>7.3889916743755779E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" ref="Q80" si="51">Q79/Q3</f>
+        <f t="shared" ref="Q80:R80" si="55">Q79/Q3</f>
         <v>6.2204535934414461E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R80" s="15">
+        <f t="shared" si="55"/>
+        <v>4.5925925925925926E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -7560,8 +8182,11 @@
       <c r="Q81" s="1">
         <v>402400000</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <v>233000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -7613,8 +8238,11 @@
       <c r="Q82" s="1">
         <v>-72500000</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" ht="21" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <v>-457000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -7666,12 +8294,15 @@
       <c r="Q83" s="1">
         <v>-19400000</v>
       </c>
-      <c r="X83" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y83" s="65"/>
-    </row>
-    <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <v>-109000000</v>
+      </c>
+      <c r="Y83" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z83" s="68"/>
+    </row>
+    <row r="84" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -7723,12 +8354,15 @@
       <c r="Q84" s="1">
         <v>-13100000</v>
       </c>
-      <c r="X84" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y84" s="67"/>
-    </row>
-    <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <v>185000000</v>
+      </c>
+      <c r="Y84" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z84" s="69"/>
+    </row>
+    <row r="85" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -7780,15 +8414,18 @@
       <c r="Q85" s="1">
         <v>450900000</v>
       </c>
-      <c r="X85" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y85" s="51">
-        <f>Q17</f>
-        <v>14900000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <v>621000000</v>
+      </c>
+      <c r="Y85" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z85" s="39">
+        <f>R17</f>
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -7796,7 +8433,7 @@
         <v>39000</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>41000</v>
@@ -7840,15 +8477,18 @@
       <c r="Q86" s="1">
         <v>292300000</v>
       </c>
-      <c r="X86" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y86" s="52">
-        <f>Q56</f>
+      <c r="R86" s="1">
+        <v>292300000</v>
+      </c>
+      <c r="Y86" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z86" s="40">
+        <f>R56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -7900,15 +8540,18 @@
       <c r="Q87" s="10">
         <v>1499700000</v>
       </c>
-      <c r="X87" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y87" s="51">
-        <f>Q61</f>
-        <v>988400000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R87" s="10">
+        <v>1731000000</v>
+      </c>
+      <c r="Y87" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z87" s="39">
+        <f>R61</f>
+        <v>990000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -7960,108 +8603,115 @@
       <c r="Q88" s="1">
         <v>-295900000</v>
       </c>
-      <c r="X88" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y88" s="54">
-        <f>Y85/(Y86+Y87)</f>
-        <v>1.5074868474301902E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <v>-281000000</v>
+      </c>
+      <c r="Y88" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z88" s="42">
+        <f>Z85/(Z86+Z87)</f>
+        <v>1.8181818181818181E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:G89" si="52">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:G89" si="56">(-1*B88)/B3</f>
         <v>9.6139827968833528E-3</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1.3053048929624242E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1.3211137394884579E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1.8202010987049561E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1.1629339443664228E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>8.3583962211930558E-3</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" ref="H89" si="53">(-1*H88)/H3</f>
+        <f t="shared" ref="H89" si="57">(-1*H88)/H3</f>
         <v>4.1381907993980949E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" ref="I89" si="54">(-1*I88)/I3</f>
+        <f t="shared" ref="I89" si="58">(-1*I88)/I3</f>
         <v>2.2553336031217446E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" ref="J89" si="55">(-1*J88)/J3</f>
+        <f t="shared" ref="J89" si="59">(-1*J88)/J3</f>
         <v>4.1794528300907102E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" ref="K89" si="56">(-1*K88)/K3</f>
+        <f t="shared" ref="K89" si="60">(-1*K88)/K3</f>
         <v>3.701494548524277E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" ref="L89" si="57">(-1*L88)/L3</f>
+        <f t="shared" ref="L89" si="61">(-1*L88)/L3</f>
         <v>5.2673463259432216E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" ref="M89" si="58">(-1*M88)/M3</f>
+        <f t="shared" ref="M89" si="62">(-1*M88)/M3</f>
         <v>9.0513937107423087E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" ref="N89" si="59">(-1*N88)/N3</f>
+        <f t="shared" ref="N89" si="63">(-1*N88)/N3</f>
         <v>2.94248278925161E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" ref="O89" si="60">(-1*O88)/O3</f>
+        <f t="shared" ref="O89" si="64">(-1*O88)/O3</f>
         <v>4.2760411835636766E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" ref="P89" si="61">(-1*P88)/P3</f>
+        <f t="shared" ref="P89" si="65">(-1*P88)/P3</f>
         <v>4.8527597903176074E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" ref="Q89" si="62">(-1*Q88)/Q3</f>
+        <f t="shared" ref="Q89:R89" si="66">(-1*Q88)/Q3</f>
         <v>8.853449823469571E-2</v>
       </c>
-      <c r="X89" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y89" s="51">
-        <f>Q27</f>
-        <v>14100000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R89" s="15">
+        <f t="shared" si="66"/>
+        <v>5.9470899470899473E-2</v>
+      </c>
+      <c r="Y89" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z89" s="39">
+        <f>R27</f>
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1">
         <v>-2000000</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1">
         <v>-2623000</v>
@@ -8082,7 +8732,7 @@
         <v>-22087000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1">
         <v>-21700000</v>
@@ -8096,15 +8746,18 @@
       <c r="Q90" s="1">
         <v>-234900000</v>
       </c>
-      <c r="X90" s="50" t="s">
+      <c r="R90" s="1">
+        <v>-31000000</v>
+      </c>
+      <c r="Y90" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Y90" s="51">
-        <f>Q25</f>
-        <v>628400000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="Z90" s="39">
+        <f>R25</f>
+        <v>956000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -8156,15 +8809,18 @@
       <c r="Q91" s="1">
         <v>-2350500000</v>
       </c>
-      <c r="X91" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y91" s="54">
-        <f>Y89/Y90</f>
-        <v>2.2437937619350732E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <v>-389000000</v>
+      </c>
+      <c r="Y91" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z91" s="42">
+        <f>Z89/Z90</f>
+        <v>3.2426778242677826E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -8216,15 +8872,18 @@
       <c r="Q92" s="1">
         <v>1555800000</v>
       </c>
-      <c r="X92" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y92" s="56">
-        <f>Y88*(1-Y91)</f>
-        <v>1.4736619515855599E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <v>1465000000</v>
+      </c>
+      <c r="Y92" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z92" s="42">
+        <f>Z88*(1-Z91)</f>
+        <v>1.7592240395587676E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -8232,7 +8891,7 @@
         <v>100000</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-62000</v>
@@ -8244,42 +8903,43 @@
         <v>62000</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1">
         <v>1300000</v>
       </c>
       <c r="Q93" s="1"/>
-      <c r="X93" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y93" s="69"/>
-    </row>
-    <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R93" s="1"/>
+      <c r="Y93" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z93" s="69"/>
+    </row>
+    <row r="94" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -8331,52 +8991,56 @@
       <c r="Q94" s="10">
         <v>-1325100000</v>
       </c>
-      <c r="X94" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y94" s="57">
-        <v>4.095E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R94" s="10">
+        <v>764000000</v>
+      </c>
+      <c r="Y94" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z94" s="43">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1">
         <v>-1626000</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1">
         <v>-10100000</v>
@@ -8390,35 +9054,38 @@
       <c r="Q95" s="1">
         <v>-19500000</v>
       </c>
-      <c r="X95" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y95" s="58" cm="1">
-        <f t="array" ref="Y95">_FV(A1,"Beta")</f>
+      <c r="R95" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z95" s="44" cm="1">
+        <f t="array" ref="Z95">_FV(A1,"Beta")</f>
         <v>1.1513</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>88260000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>38087000</v>
@@ -8450,14 +9117,17 @@
       <c r="Q96" s="1">
         <v>26000000</v>
       </c>
-      <c r="X96" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y96" s="57">
+      <c r="R96" s="1">
+        <v>26000000</v>
+      </c>
+      <c r="Y96" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z96" s="43">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -8465,22 +9135,22 @@
         <v>-60000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-15763000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-33529000</v>
@@ -8509,72 +9179,78 @@
       <c r="Q97" s="1">
         <v>-741800000</v>
       </c>
-      <c r="X97" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y97" s="56">
-        <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>9.0513465000000015E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R97" s="1">
+        <v>-1991000000</v>
+      </c>
+      <c r="Y97" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z97" s="42">
+        <f>(Z94)+((Z95)*(Z96-Z94))</f>
+        <v>9.0790343999999995E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="25">
+      <c r="B98" s="23">
         <v>0</v>
       </c>
-      <c r="C98" s="25">
+      <c r="C98" s="23">
         <v>0</v>
       </c>
-      <c r="D98" s="25">
+      <c r="D98" s="23">
         <v>0</v>
       </c>
-      <c r="E98" s="25">
+      <c r="E98" s="23">
         <v>0</v>
       </c>
-      <c r="F98" s="25">
+      <c r="F98" s="23">
         <v>0</v>
       </c>
-      <c r="G98" s="25">
+      <c r="G98" s="23">
         <v>0</v>
       </c>
-      <c r="H98" s="25">
+      <c r="H98" s="23">
         <v>0</v>
       </c>
-      <c r="I98" s="25">
+      <c r="I98" s="23">
         <v>0</v>
       </c>
-      <c r="J98" s="25">
+      <c r="J98" s="23">
         <v>0</v>
       </c>
-      <c r="K98" s="25">
+      <c r="K98" s="23">
         <v>0</v>
       </c>
-      <c r="L98" s="25">
+      <c r="L98" s="23">
         <v>0</v>
       </c>
-      <c r="M98" s="25">
+      <c r="M98" s="23">
         <v>0</v>
       </c>
-      <c r="N98" s="25">
+      <c r="N98" s="23">
         <v>0</v>
       </c>
-      <c r="O98" s="25">
+      <c r="O98" s="23">
         <v>0</v>
       </c>
-      <c r="P98" s="25">
+      <c r="P98" s="23">
         <v>0</v>
       </c>
-      <c r="Q98" s="25">
+      <c r="Q98" s="23">
         <v>0</v>
       </c>
-      <c r="X98" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y98" s="69"/>
-    </row>
-    <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R98" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z98" s="69"/>
+    </row>
+    <row r="99" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -8626,15 +9302,18 @@
       <c r="Q99" s="1">
         <v>818100000</v>
       </c>
-      <c r="X99" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y99" s="51">
-        <f>Y86+Y87</f>
-        <v>988400000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R99" s="1">
+        <v>818100000</v>
+      </c>
+      <c r="Y99" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z99" s="39">
+        <f>Z86+Z87</f>
+        <v>990000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -8686,20 +9365,23 @@
       <c r="Q100" s="10">
         <v>82800000</v>
       </c>
-      <c r="X100" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y100" s="54">
-        <f>Y99/Y103</f>
-        <v>1.6487407353018214E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R100" s="10">
+        <v>-2130000000</v>
+      </c>
+      <c r="Y100" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z100" s="42">
+        <f>Z99/Z103</f>
+        <v>1.6513656062008317E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>460000</v>
@@ -8726,35 +9408,38 @@
         <v>-600000</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1">
         <v>-100000</v>
       </c>
-      <c r="X101" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y101" s="37" cm="1">
-        <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
+      <c r="R101" s="1">
+        <v>-100000</v>
+      </c>
+      <c r="Y101" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z101" s="26" cm="1">
+        <f t="array" ref="Z101">_FV(A1,"Market cap",TRUE)</f>
         <v>58960382658</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -8806,15 +9491,18 @@
       <c r="Q102" s="10">
         <v>257300000</v>
       </c>
-      <c r="X102" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y102" s="54">
-        <f>Y101/Y103</f>
-        <v>0.98351259264698176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R102" s="10">
+        <v>364000000</v>
+      </c>
+      <c r="Y102" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z102" s="42">
+        <f>Z101/Z103</f>
+        <v>0.98348634393799172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -8866,15 +9554,18 @@
       <c r="Q103" s="1">
         <v>1061800000</v>
       </c>
-      <c r="X103" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y103" s="59">
-        <f>Y99+Y101</f>
-        <v>59948782658</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R103" s="1">
+        <v>1319000000</v>
+      </c>
+      <c r="Y103" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z103" s="45">
+        <f>Z99+Z101</f>
+        <v>59950382658</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -8926,336 +9617,412 @@
       <c r="Q104" s="11">
         <v>1319100000</v>
       </c>
-      <c r="X104" s="66" t="s">
+      <c r="R104" s="11">
+        <v>1683000000</v>
+      </c>
+      <c r="Y104" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z104" s="69"/>
+    </row>
+    <row r="105" spans="1:26" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:R105" si="67">(B22*(1-$Z$91))+B77+B88+B81</f>
+        <v>517463.38912133873</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="67"/>
+        <v>17273672.594142258</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="67"/>
+        <v>26952233.263598327</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="67"/>
+        <v>42816500</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="67"/>
+        <v>101011469.66527197</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="67"/>
+        <v>141024129.70711297</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="67"/>
+        <v>159699919.45606697</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="67"/>
+        <v>105456353.55648535</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="67"/>
+        <v>124605313.80753139</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="67"/>
+        <v>145660586.82008368</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="67"/>
+        <v>158043464.43514645</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="67"/>
+        <v>390432410.04184103</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="67"/>
+        <v>224909414.22594142</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="67"/>
+        <v>440638702.92887032</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="67"/>
+        <v>647455439.33054399</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="67"/>
+        <v>820209623.43096232</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="67"/>
+        <v>989708158.99581587</v>
+      </c>
+      <c r="S105" s="24">
+        <f>Q105*(1+$Z$106)</f>
+        <v>964706945.16977096</v>
+      </c>
+      <c r="T105" s="24">
+        <f t="shared" ref="T105:W105" si="68">R105*(1+$Z$106)</f>
+        <v>1164066242.8228824</v>
+      </c>
+      <c r="U105" s="24">
+        <f t="shared" si="68"/>
+        <v>1134660534.9079103</v>
+      </c>
+      <c r="V105" s="24">
+        <f t="shared" si="68"/>
+        <v>1369141201.2351718</v>
+      </c>
+      <c r="W105" s="24">
+        <f t="shared" si="68"/>
+        <v>1334555054.1785896</v>
+      </c>
+      <c r="X105" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y105" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z105" s="47">
+        <f>(Z100*Z92)+(Z102*Z97)</f>
+        <v>8.9581575692685475E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:R106" si="69">(C107/B107)-1</f>
+        <v>10.53960396039604</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.36063336063336071</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.64474891080027508</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.73585793454393356</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.29727830373367325</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.25201597300685652</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="69"/>
+        <v>-0.17477732518249756</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.23128375291183234</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.49155336557471796</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.135964500854443</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.64829495271536586</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.27621200933144263</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.22171018945212495</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.33808326348141948</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.25683858843182295</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="69"/>
+        <v>0.20368832031898987</v>
+      </c>
+      <c r="S106" s="59">
+        <v>1287000000</v>
+      </c>
+      <c r="T106" s="59">
+        <v>1632000000</v>
+      </c>
+      <c r="U106" s="59">
+        <v>2018000000</v>
+      </c>
+      <c r="V106" s="59">
+        <v>3143000000</v>
+      </c>
+      <c r="W106" s="59">
+        <v>3645000000</v>
+      </c>
+      <c r="X106" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y106" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="Y104" s="67"/>
-    </row>
-    <row r="105" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>10.53960396039604</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.36063336063336071</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.64474891080027508</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.73585793454393356</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.29727830373367325</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:Q105" si="63">(H106/G106)-1</f>
-        <v>0.25201597300685652</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="63"/>
-        <v>-0.17477732518249756</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.23128375291183234</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.49155336557471796</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.135964500854443</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.64829495271536586</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.27621200933144263</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.22171018945212495</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.33808326348141948</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="63"/>
-        <v>0.25683858843182295</v>
-      </c>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="15"/>
-      <c r="X105" s="23" t="s">
+      <c r="Z106" s="49">
+        <f>(SUM(S4:W4)/5)</f>
+        <v>0.17617120990896429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2222000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>25641000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>34888000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>57382000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>99607000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>129218000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>161783000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>133507000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>164385000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>245189000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>278526000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>459093000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>585900000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>715800000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>957800000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1203800000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1449000000</v>
+      </c>
+      <c r="S107" s="25"/>
+      <c r="T107" s="25"/>
+      <c r="U107" s="25"/>
+      <c r="V107" s="25"/>
+      <c r="W107" s="26">
+        <f>W106*(1+Z107)/(Z108-Z107)</f>
+        <v>57851251845.859726</v>
+      </c>
+      <c r="X107" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="Y105" s="24">
-        <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.9264101280576214E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>2222000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>25641000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>34888000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>57382000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>99607000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>129218000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>161783000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>133507000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>164385000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>245189000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>278526000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>459093000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>585900000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>715800000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>957800000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>1203800000</v>
-      </c>
-      <c r="R106" s="26">
-        <f>Q106*(1+$Y$106)</f>
-        <v>1478187725.5553896</v>
-      </c>
-      <c r="S106" s="26">
-        <f t="shared" ref="S106:V106" si="64">R106*(1+$Y$106)</f>
-        <v>1815117919.9058113</v>
-      </c>
-      <c r="T106" s="26">
-        <f t="shared" si="64"/>
-        <v>2228846178.4685173</v>
-      </c>
-      <c r="U106" s="26">
-        <f t="shared" si="64"/>
-        <v>2736877440.7403216</v>
-      </c>
-      <c r="V106" s="26">
-        <f t="shared" si="64"/>
-        <v>3360706628.3866019</v>
-      </c>
-      <c r="W106" s="27" t="s">
+      <c r="Y107" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="X106" s="28" t="s">
+      <c r="Z107" s="51">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="S108" s="26">
+        <f t="shared" ref="S108:U108" si="70">S107+S106</f>
+        <v>1287000000</v>
+      </c>
+      <c r="T108" s="26">
+        <f t="shared" si="70"/>
+        <v>1632000000</v>
+      </c>
+      <c r="U108" s="26">
+        <f t="shared" si="70"/>
+        <v>2018000000</v>
+      </c>
+      <c r="V108" s="26">
+        <f>V107+V106</f>
+        <v>3143000000</v>
+      </c>
+      <c r="W108" s="26">
+        <f>W107+W106</f>
+        <v>61496251845.859726</v>
+      </c>
+      <c r="X108" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y108" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="Y106" s="29">
-        <f>(SUM(R4:V4)/5)</f>
-        <v>0.22793464492057605</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="27"/>
-      <c r="S107" s="27"/>
-      <c r="T107" s="27"/>
-      <c r="U107" s="27"/>
-      <c r="V107" s="30">
-        <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>53602621455.120735</v>
-      </c>
-      <c r="W107" s="31" t="s">
+      <c r="Z108" s="49">
+        <f>Z105</f>
+        <v>8.9581575692685475E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="S109" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="X107" s="32" t="s">
+      <c r="T109" s="66"/>
+    </row>
+    <row r="110" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="S110" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="Y107" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R108" s="30">
-        <f t="shared" ref="R108:T108" si="65">R107+R106</f>
-        <v>1478187725.5553896</v>
-      </c>
-      <c r="S108" s="30">
-        <f t="shared" si="65"/>
-        <v>1815117919.9058113</v>
-      </c>
-      <c r="T108" s="30">
-        <f t="shared" si="65"/>
-        <v>2228846178.4685173</v>
-      </c>
-      <c r="U108" s="30">
-        <f>U107+U106</f>
-        <v>2736877440.7403216</v>
-      </c>
-      <c r="V108" s="30">
-        <f>V107+V106</f>
-        <v>56963328083.507339</v>
-      </c>
-      <c r="W108" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="X108" s="34" t="s">
+      <c r="T110" s="26">
+        <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
+        <v>46391076135.585419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="S111" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="Y108" s="35">
-        <f>Y105</f>
-        <v>8.9264101280576214E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="S109" s="63"/>
-    </row>
-    <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R110" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="S110" s="37">
-        <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>43703035453.43116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="S111" s="37">
+      <c r="T111" s="26">
         <f>Q40</f>
         <v>2551700000</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="S112" s="37">
-        <f>Y99</f>
-        <v>988400000</v>
-      </c>
-    </row>
-    <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="36" t="s">
+    <row r="112" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="S112" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="T112" s="26">
+        <f>Z99</f>
+        <v>990000000</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S113" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="T113" s="26">
+        <f>T110+T111-T112</f>
+        <v>47952776135.585419</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S114" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="T114" s="53">
+        <f>Q34*(1+(5*X16))</f>
+        <v>738796165.28364182</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S115" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="T115" s="55">
+        <f>T113/T114</f>
+        <v>64.906639190764054</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S116" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="S113" s="37">
-        <f>S110+S111-S112</f>
-        <v>45266335453.43116</v>
-      </c>
-    </row>
-    <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="36" t="s">
+      <c r="T116" s="56" cm="1">
+        <f t="array" ref="T116">_FV(A1,"Price",TRUE)</f>
+        <v>75.09</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S117" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="S114" s="49">
-        <f>Q34*(1+(5*W16))</f>
-        <v>791545127.5039233</v>
-      </c>
-    </row>
-    <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="38" t="s">
+      <c r="T117" s="57">
+        <f>T115/T116-1</f>
+        <v>-0.1356154056363823</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S118" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="S115" s="61">
-        <f>S113/S114</f>
-        <v>57.187308569727499</v>
-      </c>
-    </row>
-    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="S116" s="60" cm="1">
-        <f t="array" ref="S116">_FV(A1,"Price",TRUE)</f>
-        <v>75.09</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="S117" s="40">
-        <f>S115/S116-1</f>
-        <v>-0.23841645266044087</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="S118" s="41" t="str">
-        <f>IF(S115&gt;S116,"BUY","SELL")</f>
+      <c r="T118" s="58" t="str">
+        <f>IF(T115&gt;T116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="R109:S109"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="S109:T109"/>
+    <mergeCell ref="Y83:Z83"/>
+    <mergeCell ref="Y84:Z84"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="Y98:Z98"/>
+    <mergeCell ref="Y104:Z104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/FTNT" display="ROIC.AI | FTNT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -9291,9 +10058,12 @@
     <hyperlink ref="P74" r:id="rId31" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1262039/000126203922000008/0001262039-22-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1262039/000126203922000008/0001262039-22-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="R1" r:id="rId34" display="https://finbox.com/NASDAQGS:FTNT/explorer/revenue_proj" xr:uid="{448FFEC3-4D0B-0F4C-AAA0-896B489860AF}"/>
+    <hyperlink ref="S1" r:id="rId34" display="https://finbox.com/NASDAQGS:FTNT/explorer/revenue_proj" xr:uid="{448FFEC3-4D0B-0F4C-AAA0-896B489860AF}"/>
+    <hyperlink ref="X106" r:id="rId35" xr:uid="{C87FCAED-5E83-CF46-B2EF-45262257DC86}"/>
+    <hyperlink ref="R36" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1262039/000126203922000008/0001262039-22-000008-index.htm" xr:uid="{235A1489-6A6F-D740-977E-DDDF33087BB4}"/>
+    <hyperlink ref="R74" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1262039/000126203922000008/0001262039-22-000008-index.htm" xr:uid="{CACA8201-1FB6-9C4E-BC8F-B0CD5B1CEC1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId35"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4817C-F5D8-024D-9B8A-13433D1A16C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB6F4E-D638-0841-87B0-1A9CB7FF786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -570,10 +567,19 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +707,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -907,19 +920,10 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,62 +957,128 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1062,7 +1132,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Fortinet</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1099,15 +1168,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.8732673267326723E-2"/>
-          <c:y val="0.15972473279369476"/>
-          <c:w val="0.83658085808580862"/>
-          <c:h val="0.62036357865737712"/>
+          <c:x val="0.10875533661740558"/>
+          <c:y val="0.13106027126602043"/>
+          <c:w val="0.82030870279146151"/>
+          <c:h val="0.64595469716359555"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1158,10 +1227,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$W$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -1212,16 +1281,31 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$R$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$W$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>123466000</c:v>
                 </c:pt>
@@ -1272,13 +1356,28 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4725000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5400000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6400000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7550000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9060000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10450000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35A1-144F-BDA2-3B2C0B1B2E9E}"/>
+              <c16:uniqueId val="{00000000-075A-8241-B991-7E0B0A3357C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1331,10 +1430,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$W$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -1385,16 +1484,31 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$R$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$W$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>-5344000</c:v>
                 </c:pt>
@@ -1445,13 +1559,28 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>857000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1205000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1433000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1748000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2097000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2450000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-35A1-144F-BDA2-3B2C0B1B2E9E}"/>
+              <c16:uniqueId val="{00000001-075A-8241-B991-7E0B0A3357C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1504,10 +1633,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$W$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -1558,16 +1687,31 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$R$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$W$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2222000</c:v>
                 </c:pt>
@@ -1618,13 +1762,28 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1449000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1334000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1617000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1974000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2456000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2852000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-35A1-144F-BDA2-3B2C0B1B2E9E}"/>
+              <c16:uniqueId val="{00000002-075A-8241-B991-7E0B0A3357C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1636,13 +1795,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1061840367"/>
-        <c:axId val="1061842095"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="33788288"/>
+        <c:axId val="33790016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1061840367"/>
+        <c:axId val="33788288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1829,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1682,7 +1841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061842095"/>
+        <c:crossAx val="33790016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1690,7 +1849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1061842095"/>
+        <c:axId val="33790016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1739,7 +1898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061840367"/>
+        <c:crossAx val="33788288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1757,10 +1916,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34468885943712474"/>
-          <c:y val="0.88173832776677452"/>
-          <c:w val="0.31326254515215302"/>
-          <c:h val="6.6418814263011161E-2"/>
+          <c:x val="0.34545388722961357"/>
+          <c:y val="0.88169223371274452"/>
+          <c:w val="0.31171937990509807"/>
+          <c:h val="5.44991853310604E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1867,7 +2026,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2105,7 +2264,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2340,22 +2498,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E649D5-6434-23C4-51DA-28166DA2BDEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E6D2B3-951F-1E23-5004-9845057A1044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,38 +2541,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2550,36 +2708,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>75.3</v>
+    <v>81.239999999999995</v>
     <v>42.610100000000003</v>
-    <v>1.1513</v>
-    <v>0.76</v>
-    <v>1.0225E-2</v>
+    <v>1.1354</v>
+    <v>0.1</v>
+    <v>1.7340000000000001E-3</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
-    <v>13202</v>
+    <v>13677</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>75.3</v>
+    <v>58.45</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45106.99199977969</v>
+    <v>45218.999737985934</v>
     <v>0</v>
-    <v>73.900000000000006</v>
-    <v>58960382658</v>
+    <v>57.46</v>
+    <v>45368912713</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>74.540000000000006</v>
-    <v>61.920200000000001</v>
-    <v>74.33</v>
-    <v>75.09</v>
-    <v>785196200</v>
+    <v>57.63</v>
+    <v>43.334800000000001</v>
+    <v>57.67</v>
+    <v>57.77</v>
+    <v>785336900</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>270</v>
-    <v>6065226</v>
+    <v>21</v>
+    <v>5425417</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2732,10 +2890,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3146,13 +3304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM118"/>
+  <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3218,19 +3376,19 @@
       <c r="R1" s="8">
         <v>2022</v>
       </c>
-      <c r="S1" s="21">
+      <c r="S1" s="20">
         <v>2023</v>
       </c>
-      <c r="T1" s="21">
+      <c r="T1" s="20">
         <v>2024</v>
       </c>
-      <c r="U1" s="21">
+      <c r="U1" s="20">
         <v>2025</v>
       </c>
-      <c r="V1" s="21">
+      <c r="V1" s="20">
         <v>2026</v>
       </c>
-      <c r="W1" s="21">
+      <c r="W1" s="20">
         <v>2027</v>
       </c>
     </row>
@@ -3354,31 +3512,31 @@
       <c r="R3" s="1">
         <v>4725000000</v>
       </c>
-      <c r="S3" s="22">
-        <v>5461000000</v>
-      </c>
-      <c r="T3" s="22">
-        <v>6500000000</v>
-      </c>
-      <c r="U3" s="22">
-        <v>7791000000</v>
-      </c>
-      <c r="V3" s="22">
-        <v>9360000000</v>
-      </c>
-      <c r="W3" s="22">
-        <v>10622000000</v>
-      </c>
-      <c r="X3" s="28" t="s">
+      <c r="S3" s="21">
+        <v>5400000000</v>
+      </c>
+      <c r="T3" s="21">
+        <v>6400000000</v>
+      </c>
+      <c r="U3" s="21">
+        <v>7550000000</v>
+      </c>
+      <c r="V3" s="21">
+        <v>9060000000</v>
+      </c>
+      <c r="W3" s="21">
+        <v>10450000000</v>
+      </c>
+      <c r="X3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="29" t="s">
+      <c r="Y3" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="Z3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3387,103 +3545,103 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="65">
+      <c r="C4" s="43">
         <f>(C3/B3)-1</f>
         <v>0.25837072554387452</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="43">
         <f>(D3/C3)-1</f>
         <v>0.36317469716669026</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="43">
         <f>(E3/D3)-1</f>
         <v>0.19039524814557751</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="43">
         <f t="shared" ref="F4:L4" si="0">(F3/E3)-1</f>
         <v>0.28788846359796127</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="43">
         <f t="shared" si="0"/>
         <v>0.33532904624633497</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="43">
         <f t="shared" si="0"/>
         <v>0.23078537557429368</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="43">
         <f t="shared" si="0"/>
         <v>0.15302104981082709</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="43">
         <f t="shared" si="0"/>
         <v>0.25201975631280504</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="43">
         <f t="shared" si="0"/>
         <v>0.31011833367083619</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="43">
         <f t="shared" si="0"/>
         <v>0.26373074346952441</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="43">
         <f t="shared" ref="M4" si="1">(M3/L3)-1</f>
         <v>0.17208687491326535</v>
       </c>
-      <c r="N4" s="65">
+      <c r="N4" s="43">
         <f t="shared" ref="N4" si="2">(N3/M3)-1</f>
         <v>0.2048724689450343</v>
       </c>
-      <c r="O4" s="65">
+      <c r="O4" s="43">
         <f t="shared" ref="O4" si="3">(O3/N3)-1</f>
         <v>0.19709082833666436</v>
       </c>
-      <c r="P4" s="65">
+      <c r="P4" s="43">
         <f t="shared" ref="P4" si="4">(P3/O3)-1</f>
         <v>0.20322790093683341</v>
       </c>
-      <c r="Q4" s="65">
+      <c r="Q4" s="43">
         <f t="shared" ref="Q4:W4" si="5">(Q3/P3)-1</f>
         <v>0.28823620104841186</v>
       </c>
-      <c r="R4" s="65">
+      <c r="R4" s="43">
         <f t="shared" si="5"/>
         <v>0.41373945305487414</v>
       </c>
       <c r="S4" s="16">
         <f>(S3/R3)-1</f>
-        <v>0.15576719576719578</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="5"/>
-        <v>0.19025819446987735</v>
+        <v>0.18518518518518512</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="5"/>
-        <v>0.19861538461538464</v>
+        <v>0.1796875</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="5"/>
-        <v>0.20138621486330388</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="5"/>
-        <v>0.13482905982905979</v>
-      </c>
-      <c r="X4" s="30">
+        <v>0.15342163355408389</v>
+      </c>
+      <c r="X4" s="25">
         <f>SUM(P4:R4)/3</f>
         <v>0.30173451834670645</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="25">
         <f>SUM(P20:R20)/3</f>
         <v>0.31019128975899329</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="25">
         <f>SUM(P29:R29)/3</f>
         <v>0.38355612835611685</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="25">
         <f>SUM(P106:R106)/3</f>
         <v>0.26620339074407745</v>
       </c>
@@ -3609,16 +3767,20 @@
       <c r="R6" s="10">
         <v>3333000000</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="S6" s="38">
+        <f>S3*S7</f>
+        <v>4164480000</v>
+      </c>
+      <c r="X6" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="Y6" s="29" t="s">
+      <c r="Y6" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="Z6" s="29" t="s">
+      <c r="Z6" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="AA6" s="29" t="s">
+      <c r="AA6" s="70" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3678,21 +3840,24 @@
         <f>R6/R3</f>
         <v>0.70539682539682536</v>
       </c>
-      <c r="X7" s="30">
-        <f>R7</f>
-        <v>0.70539682539682536</v>
-      </c>
-      <c r="Y7" s="31">
-        <f>R21</f>
-        <v>0.22624338624338625</v>
-      </c>
-      <c r="Z7" s="31">
-        <f>R30</f>
-        <v>0.18137566137566138</v>
-      </c>
-      <c r="AA7" s="31">
-        <f>R107/R3</f>
-        <v>0.30666666666666664</v>
+      <c r="S7" s="2">
+        <v>0.7712</v>
+      </c>
+      <c r="X7" s="25">
+        <f>S7</f>
+        <v>0.7712</v>
+      </c>
+      <c r="Y7" s="26">
+        <f>S21</f>
+        <v>0.28370370370370368</v>
+      </c>
+      <c r="Z7" s="26">
+        <f>S30</f>
+        <v>0.22314814814814815</v>
+      </c>
+      <c r="AA7" s="26">
+        <f>S107/S3</f>
+        <v>0.24703703703703703</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -3823,16 +3988,16 @@
         <f t="shared" ref="R9" si="7">R8/R3</f>
         <v>0.10835978835978836</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" s="29" t="s">
+      <c r="Y9" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="Z9" s="29" t="s">
+      <c r="Z9" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AA9" s="29" t="s">
+      <c r="AA9" s="24" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3891,19 +4056,19 @@
       <c r="R10" s="1">
         <v>144000000</v>
       </c>
-      <c r="X10" s="30">
+      <c r="X10" s="25">
         <f>R9</f>
         <v>0.10835978835978836</v>
       </c>
-      <c r="Y10" s="31">
+      <c r="Y10" s="26">
         <f>R13</f>
         <v>0.3925925925925926</v>
       </c>
-      <c r="Z10" s="31">
+      <c r="Z10" s="26">
         <f>R80</f>
         <v>4.5925925925925926E-2</v>
       </c>
-      <c r="AA10" s="31">
+      <c r="AA10" s="26">
         <f>R89</f>
         <v>5.9470899470899473E-2</v>
       </c>
@@ -4019,16 +4184,16 @@
       <c r="R12" s="1">
         <v>1855000000</v>
       </c>
-      <c r="X12" s="28" t="s">
+      <c r="X12" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="Y12" s="29" t="s">
+      <c r="Y12" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="Z12" s="29" t="s">
+      <c r="Z12" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="AA12" s="29" t="s">
+      <c r="AA12" s="24" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4104,21 +4269,20 @@
         <f t="shared" ref="R13" si="9">R12/R3</f>
         <v>0.3925925925925926</v>
       </c>
-      <c r="X13" s="30">
+      <c r="X13" s="25">
         <f>R28/R72</f>
         <v>-3.0390070921985815</v>
       </c>
-      <c r="Y13" s="31">
+      <c r="Y13" s="26">
         <f>R28/R54</f>
         <v>0.13760436737315351</v>
       </c>
-      <c r="Z13" s="31">
-        <f>R22/(R72+R56+R61)</f>
-        <v>1.3629943502824859</v>
-      </c>
-      <c r="AA13" s="19">
-        <f>R67/R72</f>
-        <v>-23.085106382978722</v>
+      <c r="Z13" s="26">
+        <f>R22/(Q72+R56+R61)</f>
+        <v>0.54467460631032338</v>
+      </c>
+      <c r="AA13" s="71" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -4232,16 +4396,16 @@
       <c r="R15" s="1">
         <v>2368000000</v>
       </c>
-      <c r="X15" s="28" t="s">
+      <c r="X15" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="Y15" s="29" t="s">
+      <c r="Y15" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="Z15" s="29" t="s">
+      <c r="Z15" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="AA15" s="29" t="s">
+      <c r="AA15" s="24" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4305,17 +4469,17 @@
         <f>SUM(N35:R35)/5</f>
         <v>-2.3148733624502274E-2</v>
       </c>
-      <c r="Y16" s="33">
-        <f>Z101/R3</f>
-        <v>12.478387864126985</v>
-      </c>
-      <c r="Z16" s="33">
-        <f>Z101/R28</f>
-        <v>68.798579530921813</v>
-      </c>
-      <c r="AA16" s="34">
-        <f>Z101/R107</f>
-        <v>40.690395209109731</v>
+      <c r="Y16" s="28">
+        <f>Z102/R3</f>
+        <v>9.6018862884656091</v>
+      </c>
+      <c r="Z16" s="28">
+        <f>Z102/R28</f>
+        <v>52.93922136872812</v>
+      </c>
+      <c r="AA16" s="29">
+        <f>Z102/R107</f>
+        <v>31.31049876673568</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -4429,16 +4593,16 @@
       <c r="R18" s="1">
         <v>104000000</v>
       </c>
-      <c r="X18" s="28" t="s">
+      <c r="X18" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Y18" s="29" t="s">
+      <c r="Y18" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="Z18" s="29" t="s">
+      <c r="Z18" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="AA18" s="29" t="s">
+      <c r="AA18" s="24" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4497,36 +4661,36 @@
       <c r="R19" s="10">
         <v>1069000000</v>
       </c>
-      <c r="S19" s="60">
-        <v>1529000000</v>
-      </c>
-      <c r="T19" s="60">
-        <v>1872000000</v>
-      </c>
-      <c r="U19" s="60">
+      <c r="S19" s="38">
+        <v>1532000000</v>
+      </c>
+      <c r="T19" s="38">
+        <v>1863000000</v>
+      </c>
+      <c r="U19" s="38">
         <v>2241000000</v>
       </c>
-      <c r="V19" s="60">
-        <v>3160000000</v>
-      </c>
-      <c r="W19" s="60">
-        <v>3852000000</v>
-      </c>
-      <c r="X19" s="32">
+      <c r="V19" s="38">
+        <v>2616000000</v>
+      </c>
+      <c r="W19" s="38">
+        <v>3186000000</v>
+      </c>
+      <c r="X19" s="27">
         <f>R40-R56-R61</f>
         <v>1221000000</v>
       </c>
-      <c r="Y19" s="33">
-        <f>Z101/S3</f>
-        <v>10.796627478117561</v>
-      </c>
-      <c r="Z19" s="33">
-        <f>Z101/S28</f>
-        <v>50.350454874466266</v>
-      </c>
-      <c r="AA19" s="34">
-        <f>Z101/S106</f>
-        <v>45.812263137529136</v>
+      <c r="Y19" s="28">
+        <f>Z102/S3</f>
+        <v>8.4016505024074082</v>
+      </c>
+      <c r="Z19" s="28">
+        <f>Z102/S28</f>
+        <v>37.650549969294609</v>
+      </c>
+      <c r="AA19" s="29">
+        <f>Z102/S107</f>
+        <v>34.009679694902552</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4600,23 +4764,23 @@
       </c>
       <c r="S20" s="16">
         <f>(S19/R19)-1</f>
-        <v>0.43030869971936392</v>
+        <v>0.43311506080449025</v>
       </c>
       <c r="T20" s="16">
         <f t="shared" si="20"/>
-        <v>0.22432962720732497</v>
+        <v>0.21605744125326365</v>
       </c>
       <c r="U20" s="16">
         <f t="shared" si="20"/>
-        <v>0.19711538461538458</v>
+        <v>0.20289855072463769</v>
       </c>
       <c r="V20" s="16">
         <f t="shared" si="20"/>
-        <v>0.41008478357875955</v>
+        <v>0.16733601070950477</v>
       </c>
       <c r="W20" s="16">
         <f t="shared" si="20"/>
-        <v>0.21898734177215196</v>
+        <v>0.21788990825688082</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4675,31 +4839,34 @@
         <f>R19/R3</f>
         <v>0.22624338624338625</v>
       </c>
-      <c r="S21" s="61">
+      <c r="S21" s="39">
         <f>S19/S3</f>
-        <v>0.27998535066837577</v>
-      </c>
-      <c r="T21" s="61">
+        <v>0.28370370370370368</v>
+      </c>
+      <c r="T21" s="39">
         <f t="shared" ref="T21:W21" si="21">T19/T3</f>
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="U21" s="61">
+        <v>0.29109374999999998</v>
+      </c>
+      <c r="U21" s="39">
         <f t="shared" si="21"/>
-        <v>0.28763958413554103</v>
-      </c>
-      <c r="V21" s="61">
+        <v>0.29682119205298013</v>
+      </c>
+      <c r="V21" s="39">
         <f t="shared" si="21"/>
-        <v>0.33760683760683763</v>
-      </c>
-      <c r="W21" s="61">
+        <v>0.28874172185430463</v>
+      </c>
+      <c r="W21" s="39">
         <f t="shared" si="21"/>
-        <v>0.36264356994916214</v>
-      </c>
-      <c r="Z21" s="28" t="s">
+        <v>0.30488038277511964</v>
+      </c>
+      <c r="Y21" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z21" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="AA21" s="29" t="s">
-        <v>161</v>
+      <c r="AA21" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4757,13 +4924,17 @@
       <c r="R22" s="10">
         <v>965000000</v>
       </c>
-      <c r="Z22" s="35">
-        <f>(-1*R98)/Z101</f>
+      <c r="Y22" s="25">
+        <f>SUM(S29:W29)/5</f>
+        <v>0.23661806538479885</v>
+      </c>
+      <c r="Z22" s="30">
+        <f>(-1*R98)/Z102</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="36">
-        <f>R107/Z101</f>
-        <v>2.4575824217507744E-2</v>
+      <c r="AA22" s="31">
+        <f>S107/Z102</f>
+        <v>2.9403393650598901E-2</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5103,20 +5274,20 @@
       <c r="R28" s="11">
         <v>857000000</v>
       </c>
-      <c r="S28" s="62">
-        <v>1171000000</v>
-      </c>
-      <c r="T28" s="62">
-        <v>1395000000</v>
-      </c>
-      <c r="U28" s="62">
-        <v>1772000000</v>
-      </c>
-      <c r="V28" s="62">
-        <v>2212000000</v>
-      </c>
-      <c r="W28" s="62">
-        <v>2515000000</v>
+      <c r="S28" s="40">
+        <v>1205000000</v>
+      </c>
+      <c r="T28" s="40">
+        <v>1433000000</v>
+      </c>
+      <c r="U28" s="40">
+        <v>1748000000</v>
+      </c>
+      <c r="V28" s="40">
+        <v>2097000000</v>
+      </c>
+      <c r="W28" s="40">
+        <v>2450000000</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5190,23 +5361,23 @@
       </c>
       <c r="S29" s="16">
         <f>(S28/R28)-1</f>
-        <v>0.36639439906651106</v>
+        <v>0.40606767794632437</v>
       </c>
       <c r="T29" s="16">
         <f t="shared" si="32"/>
-        <v>0.19128949615713076</v>
+        <v>0.1892116182572614</v>
       </c>
       <c r="U29" s="16">
         <f t="shared" si="32"/>
-        <v>0.27025089605734776</v>
+        <v>0.21981856245638531</v>
       </c>
       <c r="V29" s="16">
         <f t="shared" si="32"/>
-        <v>0.24830699774266374</v>
+        <v>0.19965675057208232</v>
       </c>
       <c r="W29" s="16">
         <f t="shared" si="32"/>
-        <v>0.13698010849909581</v>
+        <v>0.16833571769194089</v>
       </c>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
@@ -5267,25 +5438,25 @@
         <f>R28/R3</f>
         <v>0.18137566137566138</v>
       </c>
-      <c r="S30" s="63">
+      <c r="S30" s="41">
         <f>S28/S3</f>
-        <v>0.21442959164988099</v>
-      </c>
-      <c r="T30" s="63">
+        <v>0.22314814814814815</v>
+      </c>
+      <c r="T30" s="41">
         <f t="shared" ref="T30:W30" si="33">T28/T3</f>
-        <v>0.21461538461538462</v>
-      </c>
-      <c r="U30" s="63">
+        <v>0.22390625</v>
+      </c>
+      <c r="U30" s="41">
         <f t="shared" si="33"/>
-        <v>0.22744192016429213</v>
-      </c>
-      <c r="V30" s="63">
+        <v>0.23152317880794701</v>
+      </c>
+      <c r="V30" s="41">
         <f t="shared" si="33"/>
-        <v>0.23632478632478632</v>
-      </c>
-      <c r="W30" s="63">
+        <v>0.23145695364238411</v>
+      </c>
+      <c r="W30" s="41">
         <f t="shared" si="33"/>
-        <v>0.23677273583129355</v>
+        <v>0.23444976076555024</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -5343,20 +5514,20 @@
       <c r="R31" s="12">
         <v>1.08</v>
       </c>
-      <c r="S31" s="64">
-        <v>1.49</v>
-      </c>
-      <c r="T31" s="64">
-        <v>1.78</v>
-      </c>
-      <c r="U31" s="64">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="V31" s="64">
-        <v>2.82</v>
-      </c>
-      <c r="W31" s="64">
-        <v>3.2</v>
+      <c r="S31" s="42">
+        <v>1.53</v>
+      </c>
+      <c r="T31" s="42">
+        <v>1.82</v>
+      </c>
+      <c r="U31" s="42">
+        <v>2.23</v>
+      </c>
+      <c r="V31" s="42">
+        <v>2.67</v>
+      </c>
+      <c r="W31" s="42">
+        <v>3.12</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -5532,67 +5703,67 @@
         <v>104</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <f>(C34-B34)/B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <f t="shared" ref="D35:G35" si="34">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <f t="shared" si="34"/>
         <v>-2.8351360209767289E-2</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="19">
         <f t="shared" si="34"/>
         <v>0.19908308928379767</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="19">
         <f t="shared" si="34"/>
         <v>4.7152922522153883E-2</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <f t="shared" ref="H35" si="35">(H34-G34)/G34</f>
         <v>1.5557360133348802E-2</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="19">
         <f t="shared" ref="I35" si="36">(I34-H34)/H34</f>
         <v>1.1146582977111628E-2</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="19">
         <f t="shared" ref="J35" si="37">(J34-I34)/I34</f>
         <v>6.5761700052918547E-3</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <f t="shared" ref="K35" si="38">(K34-J34)/J34</f>
         <v>4.0475163773192588E-2</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="19">
         <f t="shared" ref="L35" si="39">(L34-K34)/K34</f>
         <v>1.1184221731453778E-3</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="19">
         <f t="shared" ref="M35" si="40">(M34-L34)/L34</f>
         <v>9.873084644262722E-3</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35" s="19">
         <f t="shared" ref="N35" si="41">(N34-M34)/M34</f>
         <v>-2.1782467331914489E-2</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="19">
         <f t="shared" ref="O35" si="42">(O34-N34)/N34</f>
         <v>4.5924225028702642E-3</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="19">
         <f t="shared" ref="P35" si="43">(P34-O34)/O34</f>
         <v>-4.1714285714285718E-2</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q35" s="19">
         <f t="shared" ref="Q35:R35" si="44">(Q34-P34)/P34</f>
         <v>-3.5778175313059034E-3</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="19">
         <f t="shared" si="44"/>
         <v>-5.3261520047875523E-2</v>
       </c>
@@ -6722,52 +6893,52 @@
       <c r="B56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>0</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="22">
         <v>0</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>0</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>0</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="22">
         <v>0</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="22">
         <v>0</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>0</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>0</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="22">
         <v>0</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="22">
         <v>0</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="22">
         <v>0</v>
       </c>
-      <c r="N56" s="23">
+      <c r="N56" s="22">
         <v>0</v>
       </c>
-      <c r="O56" s="23">
+      <c r="O56" s="22">
         <v>0</v>
       </c>
-      <c r="P56" s="23">
+      <c r="P56" s="22">
         <v>0</v>
       </c>
-      <c r="Q56" s="23">
+      <c r="Q56" s="22">
         <v>0</v>
       </c>
-      <c r="R56" s="23">
+      <c r="R56" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8242,7 +8413,7 @@
         <v>-457000000</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -8297,12 +8468,8 @@
       <c r="R83" s="1">
         <v>-109000000</v>
       </c>
-      <c r="Y83" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z83" s="68"/>
-    </row>
-    <row r="84" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -8357,12 +8524,18 @@
       <c r="R84" s="1">
         <v>185000000</v>
       </c>
-      <c r="Y84" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z84" s="69"/>
-    </row>
-    <row r="85" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="44"/>
+      <c r="W84" s="44"/>
+      <c r="X84" s="44"/>
+      <c r="Y84" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z84" s="75"/>
+    </row>
+    <row r="85" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -8417,13 +8590,16 @@
       <c r="R85" s="1">
         <v>621000000</v>
       </c>
-      <c r="Y85" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z85" s="39">
-        <f>R17</f>
-        <v>18000000</v>
-      </c>
+      <c r="S85" s="44"/>
+      <c r="T85" s="44"/>
+      <c r="U85" s="44"/>
+      <c r="V85" s="44"/>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z85" s="76"/>
     </row>
     <row r="86" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -8480,12 +8656,18 @@
       <c r="R86" s="1">
         <v>292300000</v>
       </c>
-      <c r="Y86" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z86" s="40">
-        <f>R56</f>
-        <v>0</v>
+      <c r="S86" s="44"/>
+      <c r="T86" s="44"/>
+      <c r="U86" s="44"/>
+      <c r="V86" s="44"/>
+      <c r="W86" s="44"/>
+      <c r="X86" s="44"/>
+      <c r="Y86" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z86" s="45">
+        <f>R17</f>
+        <v>18000000</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -8543,12 +8725,18 @@
       <c r="R87" s="10">
         <v>1731000000</v>
       </c>
-      <c r="Y87" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z87" s="39">
-        <f>R61</f>
-        <v>990000000</v>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="44"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z87" s="46">
+        <f>R56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -8606,12 +8794,18 @@
       <c r="R88" s="1">
         <v>-281000000</v>
       </c>
-      <c r="Y88" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z88" s="42">
-        <f>Z85/(Z86+Z87)</f>
-        <v>1.8181818181818181E-2</v>
+      <c r="S88" s="44"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="44"/>
+      <c r="W88" s="44"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z88" s="45">
+        <f>R61</f>
+        <v>990000000</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -8686,12 +8880,18 @@
         <f t="shared" si="66"/>
         <v>5.9470899470899473E-2</v>
       </c>
-      <c r="Y89" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z89" s="39">
-        <f>R27</f>
-        <v>31000000</v>
+      <c r="S89" s="44"/>
+      <c r="T89" s="44"/>
+      <c r="U89" s="44"/>
+      <c r="V89" s="44"/>
+      <c r="W89" s="44"/>
+      <c r="X89" s="44"/>
+      <c r="Y89" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z89" s="47">
+        <f>Z86/(Z87+Z88)</f>
+        <v>1.8181818181818181E-2</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -8749,12 +8949,18 @@
       <c r="R90" s="1">
         <v>-31000000</v>
       </c>
-      <c r="Y90" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z90" s="39">
-        <f>R25</f>
-        <v>956000000</v>
+      <c r="S90" s="44"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z90" s="45">
+        <f>R27</f>
+        <v>31000000</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -8812,12 +9018,18 @@
       <c r="R91" s="1">
         <v>-389000000</v>
       </c>
-      <c r="Y91" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z91" s="42">
-        <f>Z89/Z90</f>
-        <v>3.2426778242677826E-2</v>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z91" s="45">
+        <f>R25</f>
+        <v>956000000</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -8875,12 +9087,18 @@
       <c r="R92" s="1">
         <v>1465000000</v>
       </c>
-      <c r="Y92" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z92" s="42">
-        <f>Z88*(1-Z91)</f>
-        <v>1.7592240395587676E-2</v>
+      <c r="S92" s="44"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z92" s="47">
+        <f>Z90/Z91</f>
+        <v>3.2426778242677826E-2</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8934,12 +9152,21 @@
       </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
-      <c r="Y93" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z93" s="69"/>
-    </row>
-    <row r="94" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z93" s="47">
+        <f>Z89*(1-Z92)</f>
+        <v>1.7592240395587676E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -8994,13 +9221,16 @@
       <c r="R94" s="10">
         <v>764000000</v>
       </c>
-      <c r="Y94" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z94" s="43">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z94" s="76"/>
     </row>
     <row r="95" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -9057,12 +9287,18 @@
       <c r="R95" s="1">
         <v>0</v>
       </c>
-      <c r="Y95" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z95" s="44" cm="1">
-        <f t="array" ref="Z95">_FV(A1,"Beta")</f>
-        <v>1.1513</v>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="44"/>
+      <c r="X95" s="44"/>
+      <c r="Y95" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z95" s="48">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9120,11 +9356,18 @@
       <c r="R96" s="1">
         <v>26000000</v>
       </c>
-      <c r="Y96" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z96" s="43">
-        <v>8.4000000000000005E-2</v>
+      <c r="S96" s="44"/>
+      <c r="T96" s="44"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="44"/>
+      <c r="W96" s="44"/>
+      <c r="X96" s="44"/>
+      <c r="Y96" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z96" s="49" cm="1">
+        <f t="array" ref="Z96">_FV(A1,"Beta")</f>
+        <v>1.1354</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9182,75 +9425,89 @@
       <c r="R97" s="1">
         <v>-1991000000</v>
       </c>
-      <c r="Y97" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z97" s="42">
-        <f>(Z94)+((Z95)*(Z96-Z94))</f>
-        <v>9.0790343999999995E-2</v>
+      <c r="S97" s="44"/>
+      <c r="T97" s="44"/>
+      <c r="U97" s="44"/>
+      <c r="V97" s="44"/>
+      <c r="W97" s="44"/>
+      <c r="X97" s="44"/>
+      <c r="Y97" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z97" s="48">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="23">
+      <c r="B98" s="22">
         <v>0</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="22">
         <v>0</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="22">
         <v>0</v>
       </c>
-      <c r="E98" s="23">
+      <c r="E98" s="22">
         <v>0</v>
       </c>
-      <c r="F98" s="23">
+      <c r="F98" s="22">
         <v>0</v>
       </c>
-      <c r="G98" s="23">
+      <c r="G98" s="22">
         <v>0</v>
       </c>
-      <c r="H98" s="23">
+      <c r="H98" s="22">
         <v>0</v>
       </c>
-      <c r="I98" s="23">
+      <c r="I98" s="22">
         <v>0</v>
       </c>
-      <c r="J98" s="23">
+      <c r="J98" s="22">
         <v>0</v>
       </c>
-      <c r="K98" s="23">
+      <c r="K98" s="22">
         <v>0</v>
       </c>
-      <c r="L98" s="23">
+      <c r="L98" s="22">
         <v>0</v>
       </c>
-      <c r="M98" s="23">
+      <c r="M98" s="22">
         <v>0</v>
       </c>
-      <c r="N98" s="23">
+      <c r="N98" s="22">
         <v>0</v>
       </c>
-      <c r="O98" s="23">
+      <c r="O98" s="22">
         <v>0</v>
       </c>
-      <c r="P98" s="23">
+      <c r="P98" s="22">
         <v>0</v>
       </c>
-      <c r="Q98" s="23">
+      <c r="Q98" s="22">
         <v>0</v>
       </c>
-      <c r="R98" s="23">
+      <c r="R98" s="22">
         <v>0</v>
       </c>
-      <c r="Y98" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z98" s="69"/>
-    </row>
-    <row r="99" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="S98" s="44"/>
+      <c r="T98" s="44"/>
+      <c r="U98" s="44"/>
+      <c r="V98" s="44"/>
+      <c r="W98" s="44"/>
+      <c r="X98" s="44"/>
+      <c r="Y98" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z98" s="47">
+        <f>(Z95)+((Z96)*(Z97-Z95))</f>
+        <v>8.8736291999999994E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -9305,13 +9562,16 @@
       <c r="R99" s="1">
         <v>818100000</v>
       </c>
-      <c r="Y99" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z99" s="39">
-        <f>Z86+Z87</f>
-        <v>990000000</v>
-      </c>
+      <c r="S99" s="44"/>
+      <c r="T99" s="44"/>
+      <c r="U99" s="44"/>
+      <c r="V99" s="44"/>
+      <c r="W99" s="44"/>
+      <c r="X99" s="44"/>
+      <c r="Y99" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z99" s="76"/>
     </row>
     <row r="100" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -9368,12 +9628,18 @@
       <c r="R100" s="10">
         <v>-2130000000</v>
       </c>
-      <c r="Y100" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z100" s="42">
-        <f>Z99/Z103</f>
-        <v>1.6513656062008317E-2</v>
+      <c r="S100" s="44"/>
+      <c r="T100" s="44"/>
+      <c r="U100" s="44"/>
+      <c r="V100" s="44"/>
+      <c r="W100" s="44"/>
+      <c r="X100" s="44"/>
+      <c r="Y100" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z100" s="45">
+        <f>Z87+Z88</f>
+        <v>990000000</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9431,12 +9697,18 @@
       <c r="R101" s="1">
         <v>-100000</v>
       </c>
-      <c r="Y101" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z101" s="26" cm="1">
-        <f t="array" ref="Z101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58960382658</v>
+      <c r="S101" s="44"/>
+      <c r="T101" s="44"/>
+      <c r="U101" s="44"/>
+      <c r="V101" s="44"/>
+      <c r="W101" s="44"/>
+      <c r="X101" s="44"/>
+      <c r="Y101" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z101" s="47">
+        <f>Z100/Z104</f>
+        <v>2.1355116892600966E-2</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9494,12 +9766,18 @@
       <c r="R102" s="10">
         <v>364000000</v>
       </c>
-      <c r="Y102" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z102" s="42">
-        <f>Z101/Z103</f>
-        <v>0.98348634393799172</v>
+      <c r="S102" s="44"/>
+      <c r="T102" s="44"/>
+      <c r="U102" s="44"/>
+      <c r="V102" s="44"/>
+      <c r="W102" s="44"/>
+      <c r="X102" s="44"/>
+      <c r="Y102" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z102" s="50" cm="1">
+        <f t="array" ref="Z102">_FV(A1,"Market cap",TRUE)</f>
+        <v>45368912713</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9557,15 +9835,21 @@
       <c r="R103" s="1">
         <v>1319000000</v>
       </c>
-      <c r="Y103" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z103" s="45">
-        <f>Z99+Z101</f>
-        <v>59950382658</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S103" s="44"/>
+      <c r="T103" s="44"/>
+      <c r="U103" s="44"/>
+      <c r="V103" s="44"/>
+      <c r="W103" s="44"/>
+      <c r="X103" s="44"/>
+      <c r="Y103" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z103" s="47">
+        <f>Z102/Z104</f>
+        <v>0.97864488310739906</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -9620,17 +9904,28 @@
       <c r="R104" s="11">
         <v>1683000000</v>
       </c>
-      <c r="Y104" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z104" s="69"/>
-    </row>
-    <row r="105" spans="1:26" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S104" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="T104" s="78"/>
+      <c r="U104" s="78"/>
+      <c r="V104" s="78"/>
+      <c r="W104" s="78"/>
+      <c r="X104" s="44"/>
+      <c r="Y104" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z104" s="51">
+        <f>Z100+Z102</f>
+        <v>46358912713</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:R105" si="67">(B22*(1-$Z$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:R105" si="67">(B22*(1-$Z$92))+B77+B88+B81</f>
         <v>517463.38912133873</v>
       </c>
       <c r="C105" s="1">
@@ -9697,40 +9992,37 @@
         <f t="shared" si="67"/>
         <v>989708158.99581587</v>
       </c>
-      <c r="S105" s="24">
-        <f>Q105*(1+$Z$106)</f>
-        <v>964706945.16977096</v>
-      </c>
-      <c r="T105" s="24">
-        <f t="shared" ref="T105:W105" si="68">R105*(1+$Z$106)</f>
-        <v>1164066242.8228824</v>
-      </c>
-      <c r="U105" s="24">
+      <c r="S105" s="72">
+        <f>S107/S3</f>
+        <v>0.24703703703703703</v>
+      </c>
+      <c r="T105" s="72">
+        <f t="shared" ref="T105:W105" si="68">T107/T3</f>
+        <v>0.25265625000000003</v>
+      </c>
+      <c r="U105" s="72">
         <f t="shared" si="68"/>
-        <v>1134660534.9079103</v>
-      </c>
-      <c r="V105" s="24">
+        <v>0.26145695364238408</v>
+      </c>
+      <c r="V105" s="72">
         <f t="shared" si="68"/>
-        <v>1369141201.2351718</v>
-      </c>
-      <c r="W105" s="24">
+        <v>0.27108167770419428</v>
+      </c>
+      <c r="W105" s="72">
         <f t="shared" si="68"/>
-        <v>1334555054.1785896</v>
-      </c>
-      <c r="X105" s="25" t="s">
+        <v>0.27291866028708134</v>
+      </c>
+      <c r="X105" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="Y105" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z105" s="47">
-        <f>(Z100*Z92)+(Z102*Z97)</f>
-        <v>8.9581575692685475E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y105" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z105" s="76"/>
+    </row>
+    <row r="106" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
@@ -9797,35 +10089,41 @@
         <f t="shared" si="69"/>
         <v>0.20368832031898987</v>
       </c>
-      <c r="S106" s="59">
-        <v>1287000000</v>
-      </c>
-      <c r="T106" s="59">
-        <v>1632000000</v>
-      </c>
-      <c r="U106" s="59">
-        <v>2018000000</v>
-      </c>
-      <c r="V106" s="59">
-        <v>3143000000</v>
-      </c>
-      <c r="W106" s="59">
-        <v>3645000000</v>
-      </c>
-      <c r="X106" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y106" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z106" s="49">
-        <f>(SUM(S4:W4)/5)</f>
-        <v>0.17617120990896429</v>
+      <c r="S106" s="53">
+        <f>(S107/R107)-1</f>
+        <v>-7.9365079365079416E-2</v>
+      </c>
+      <c r="T106" s="53">
+        <f>(T107/S107)-1</f>
+        <v>0.21214392803598203</v>
+      </c>
+      <c r="U106" s="53">
+        <f>(U107/T107)-1</f>
+        <v>0.22077922077922074</v>
+      </c>
+      <c r="V106" s="53">
+        <f>(V107/U107)-1</f>
+        <v>0.24417426545086118</v>
+      </c>
+      <c r="W106" s="53">
+        <f>(W107/V107)-1</f>
+        <v>0.16123778501628672</v>
+      </c>
+      <c r="X106" s="54">
+        <f>SUM(S106:W106)/5</f>
+        <v>0.15179402398345426</v>
+      </c>
+      <c r="Y106" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z106" s="55">
+        <f>(Z101*Z93)+(Z103*Z98)</f>
+        <v>8.7217002461774537E-2</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="37" t="s">
-        <v>164</v>
+      <c r="A107" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="B107" s="1">
         <v>2222000</v>
@@ -9878,151 +10176,239 @@
       <c r="R107" s="1">
         <v>1449000000</v>
       </c>
-      <c r="S107" s="25"/>
-      <c r="T107" s="25"/>
-      <c r="U107" s="25"/>
-      <c r="V107" s="25"/>
-      <c r="W107" s="26">
-        <f>W106*(1+Z107)/(Z108-Z107)</f>
-        <v>57851251845.859726</v>
-      </c>
-      <c r="X107" s="27" t="s">
+      <c r="S107" s="56">
+        <v>1334000000</v>
+      </c>
+      <c r="T107" s="56">
+        <v>1617000000</v>
+      </c>
+      <c r="U107" s="56">
+        <v>1974000000</v>
+      </c>
+      <c r="V107" s="56">
+        <v>2456000000</v>
+      </c>
+      <c r="W107" s="56">
+        <v>2852000000</v>
+      </c>
+      <c r="X107" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y107" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z107" s="36">
+        <f>(SUM(S4:W4)/5)</f>
+        <v>0.17223029231928236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="S108" s="52"/>
+      <c r="T108" s="52"/>
+      <c r="U108" s="52"/>
+      <c r="V108" s="52"/>
+      <c r="W108" s="58">
+        <f>W107*(1+Z108)/(Z109-Z108)</f>
+        <v>46985548713.891251</v>
+      </c>
+      <c r="X108" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="Y107" s="50" t="s">
+      <c r="Y108" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="Z107" s="51">
+      <c r="Z108" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="S108" s="26">
-        <f t="shared" ref="S108:U108" si="70">S107+S106</f>
-        <v>1287000000</v>
-      </c>
-      <c r="T108" s="26">
+    <row r="109" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="S109" s="58">
+        <f t="shared" ref="S109:U109" si="70">S108+S107</f>
+        <v>1334000000</v>
+      </c>
+      <c r="T109" s="58">
         <f t="shared" si="70"/>
-        <v>1632000000</v>
-      </c>
-      <c r="U108" s="26">
+        <v>1617000000</v>
+      </c>
+      <c r="U109" s="58">
         <f t="shared" si="70"/>
-        <v>2018000000</v>
-      </c>
-      <c r="V108" s="26">
-        <f>V107+V106</f>
-        <v>3143000000</v>
-      </c>
-      <c r="W108" s="26">
-        <f>W107+W106</f>
-        <v>61496251845.859726</v>
-      </c>
-      <c r="X108" s="27" t="s">
+        <v>1974000000</v>
+      </c>
+      <c r="V109" s="58">
+        <f>V108+V107</f>
+        <v>2456000000</v>
+      </c>
+      <c r="W109" s="58">
+        <f>W108+W107</f>
+        <v>49837548713.891251</v>
+      </c>
+      <c r="X109" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="Y108" s="52" t="s">
+      <c r="Y109" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="Z108" s="49">
-        <f>Z105</f>
-        <v>8.9581575692685475E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="S109" s="66" t="s">
+      <c r="Z109" s="36">
+        <f>Z106</f>
+        <v>8.7217002461774537E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="S110" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="T109" s="66"/>
-    </row>
-    <row r="110" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="S110" s="53" t="s">
+      <c r="T110" s="77"/>
+      <c r="U110" s="44"/>
+      <c r="V110" s="44"/>
+      <c r="W110" s="44"/>
+      <c r="X110" s="44"/>
+      <c r="Y110" s="44"/>
+      <c r="Z110" s="44"/>
+    </row>
+    <row r="111" spans="1:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S111" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="T110" s="26">
-        <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
-        <v>46391076135.585419</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="S111" s="53" t="s">
+      <c r="T111" s="50">
+        <f>NPV(Z109,S109,T109,U109,V109,W109)</f>
+        <v>38696438289.54454</v>
+      </c>
+      <c r="U111" s="44"/>
+      <c r="V111" s="44"/>
+      <c r="W111" s="44"/>
+      <c r="X111" s="44"/>
+      <c r="Y111" s="44"/>
+      <c r="Z111" s="44"/>
+    </row>
+    <row r="112" spans="1:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S112" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="T111" s="26">
+      <c r="T112" s="50">
         <f>Q40</f>
         <v>2551700000</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="S112" s="53" t="s">
+      <c r="U112" s="44"/>
+      <c r="V112" s="44"/>
+      <c r="W112" s="44"/>
+      <c r="X112" s="44"/>
+      <c r="Y112" s="44"/>
+      <c r="Z112" s="44"/>
+    </row>
+    <row r="113" spans="19:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S113" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="T112" s="26">
-        <f>Z99</f>
+      <c r="T113" s="50">
+        <f>Z100</f>
         <v>990000000</v>
       </c>
-    </row>
-    <row r="113" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S113" s="53" t="s">
+      <c r="U113" s="44"/>
+      <c r="V113" s="44"/>
+      <c r="W113" s="44"/>
+      <c r="X113" s="44"/>
+      <c r="Y113" s="44"/>
+      <c r="Z113" s="44"/>
+    </row>
+    <row r="114" spans="19:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S114" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="T113" s="26">
-        <f>T110+T111-T112</f>
-        <v>47952776135.585419</v>
-      </c>
-    </row>
-    <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S114" s="53" t="s">
+      <c r="T114" s="50">
+        <f>T111+T112-T113</f>
+        <v>40258138289.54454</v>
+      </c>
+      <c r="U114" s="44"/>
+      <c r="V114" s="44"/>
+      <c r="W114" s="44"/>
+      <c r="X114" s="44"/>
+      <c r="Y114" s="44"/>
+      <c r="Z114" s="44"/>
+    </row>
+    <row r="115" spans="19:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S115" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="T114" s="53">
+      <c r="T115" s="62">
         <f>Q34*(1+(5*X16))</f>
         <v>738796165.28364182</v>
       </c>
-    </row>
-    <row r="115" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S115" s="54" t="s">
+      <c r="U115" s="44"/>
+      <c r="V115" s="44"/>
+      <c r="W115" s="44"/>
+      <c r="X115" s="44"/>
+      <c r="Y115" s="44"/>
+      <c r="Z115" s="44"/>
+    </row>
+    <row r="116" spans="19:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S116" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="T115" s="55">
-        <f>T113/T114</f>
-        <v>64.906639190764054</v>
-      </c>
-    </row>
-    <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S116" s="53" t="s">
+      <c r="T116" s="64">
+        <f>T114/T115</f>
+        <v>54.491536612251451</v>
+      </c>
+      <c r="U116" s="44"/>
+      <c r="V116" s="44"/>
+      <c r="W116" s="44"/>
+      <c r="X116" s="44"/>
+      <c r="Y116" s="44"/>
+      <c r="Z116" s="44"/>
+    </row>
+    <row r="117" spans="19:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S117" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="T116" s="56" cm="1">
-        <f t="array" ref="T116">_FV(A1,"Price",TRUE)</f>
-        <v>75.09</v>
-      </c>
-    </row>
-    <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S117" s="54" t="s">
+      <c r="T117" s="65" cm="1">
+        <f t="array" ref="T117">_FV(A1,"Price",TRUE)</f>
+        <v>57.77</v>
+      </c>
+      <c r="U117" s="44"/>
+      <c r="V117" s="44"/>
+      <c r="W117" s="44"/>
+      <c r="X117" s="44"/>
+      <c r="Y117" s="44"/>
+      <c r="Z117" s="44"/>
+    </row>
+    <row r="118" spans="19:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S118" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="T117" s="57">
-        <f>T115/T116-1</f>
-        <v>-0.1356154056363823</v>
-      </c>
-    </row>
-    <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S118" s="54" t="s">
+      <c r="T118" s="66">
+        <f>T116/T117-1</f>
+        <v>-5.6750275017284912E-2</v>
+      </c>
+      <c r="U118" s="44"/>
+      <c r="V118" s="44"/>
+      <c r="W118" s="44"/>
+      <c r="X118" s="44"/>
+      <c r="Y118" s="44"/>
+      <c r="Z118" s="44"/>
+    </row>
+    <row r="119" spans="19:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="S119" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="T118" s="58" t="str">
-        <f>IF(T115&gt;T116,"BUY","SELL")</f>
+      <c r="T119" s="67" t="str">
+        <f>IF(T116&gt;T117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="U119" s="44"/>
+      <c r="V119" s="44"/>
+      <c r="W119" s="44"/>
+      <c r="X119" s="44"/>
+      <c r="Y119" s="44"/>
+      <c r="Z119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="S109:T109"/>
-    <mergeCell ref="Y83:Z83"/>
+  <mergeCells count="7">
     <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="Y98:Z98"/>
-    <mergeCell ref="Y104:Z104"/>
+    <mergeCell ref="Y85:Z85"/>
+    <mergeCell ref="S110:T110"/>
+    <mergeCell ref="S104:W104"/>
+    <mergeCell ref="Y105:Z105"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="Y94:Z94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/FTNT" display="ROIC.AI | FTNT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10059,7 +10445,7 @@
     <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1262039/000126203922000008/0001262039-22-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1262039/000126203922000008/0001262039-22-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="S1" r:id="rId34" display="https://finbox.com/NASDAQGS:FTNT/explorer/revenue_proj" xr:uid="{448FFEC3-4D0B-0F4C-AAA0-896B489860AF}"/>
-    <hyperlink ref="X106" r:id="rId35" xr:uid="{C87FCAED-5E83-CF46-B2EF-45262257DC86}"/>
+    <hyperlink ref="X107" r:id="rId35" xr:uid="{C87FCAED-5E83-CF46-B2EF-45262257DC86}"/>
     <hyperlink ref="R36" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1262039/000126203922000008/0001262039-22-000008-index.htm" xr:uid="{235A1489-6A6F-D740-977E-DDDF33087BB4}"/>
     <hyperlink ref="R74" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1262039/000126203922000008/0001262039-22-000008-index.htm" xr:uid="{CACA8201-1FB6-9C4E-BC8F-B0CD5B1CEC1E}"/>
   </hyperlinks>

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB6F4E-D638-0841-87B0-1A9CB7FF786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACE9F4E-D5F5-7649-BCBC-4285E847B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2548,9 +2548,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2569,7 +2570,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2583,6 +2584,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2710,9 +2712,11 @@
     <v>Powered by Refinitiv</v>
     <v>81.239999999999995</v>
     <v>42.610100000000003</v>
-    <v>1.1354</v>
-    <v>0.1</v>
-    <v>1.7340000000000001E-3</v>
+    <v>1.1366000000000001</v>
+    <v>-1.41</v>
+    <v>-2.4407000000000002E-2</v>
+    <v>-0.02</v>
+    <v>-3.5490000000000001E-4</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
     <v>13677</v>
@@ -2720,24 +2724,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>58.45</v>
+    <v>57.94</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999737985934</v>
+    <v>45219.998633471878</v>
     <v>0</v>
-    <v>57.46</v>
-    <v>45368912713</v>
+    <v>55.92</v>
+    <v>44261587684</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>57.63</v>
+    <v>57.91</v>
     <v>43.334800000000001</v>
-    <v>57.67</v>
     <v>57.77</v>
+    <v>56.36</v>
+    <v>56.34</v>
     <v>785336900</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>21</v>
-    <v>5425417</v>
+    <v>6500862</v>
+    <v>5549180</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2769,6 +2774,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2789,6 +2796,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2805,7 +2813,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2816,13 +2824,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2888,13 +2899,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2939,6 +2956,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2946,6 +2966,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3307,7 +3330,7 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
@@ -4471,15 +4494,15 @@
       </c>
       <c r="Y16" s="28">
         <f>Z102/R3</f>
-        <v>9.6018862884656091</v>
+        <v>9.3675317849735453</v>
       </c>
       <c r="Z16" s="28">
         <f>Z102/R28</f>
-        <v>52.93922136872812</v>
+        <v>51.647126819136524</v>
       </c>
       <c r="AA16" s="29">
         <f>Z102/R107</f>
-        <v>31.31049876673568</v>
+        <v>30.546299298826778</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -4682,15 +4705,15 @@
       </c>
       <c r="Y19" s="28">
         <f>Z102/S3</f>
-        <v>8.4016505024074082</v>
+        <v>8.1965903118518515</v>
       </c>
       <c r="Z19" s="28">
         <f>Z102/S28</f>
-        <v>37.650549969294609</v>
+        <v>36.731608036514523</v>
       </c>
       <c r="AA19" s="29">
         <f>Z102/S107</f>
-        <v>34.009679694902552</v>
+        <v>33.179600962518741</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,7 +4957,7 @@
       </c>
       <c r="AA22" s="31">
         <f>S107/Z102</f>
-        <v>2.9403393650598901E-2</v>
+        <v>3.0139000198635531E-2</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9298,7 +9321,7 @@
       </c>
       <c r="Z95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9367,7 +9390,7 @@
       </c>
       <c r="Z96" s="49" cm="1">
         <f t="array" ref="Z96">_FV(A1,"Beta")</f>
-        <v>1.1354</v>
+        <v>1.1366000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9504,7 +9527,7 @@
       </c>
       <c r="Z98" s="47">
         <f>(Z95)+((Z96)*(Z97-Z95))</f>
-        <v>8.8736291999999994E-2</v>
+        <v>8.8660792000000016E-2</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9708,7 +9731,7 @@
       </c>
       <c r="Z101" s="47">
         <f>Z100/Z104</f>
-        <v>2.1355116892600966E-2</v>
+        <v>2.1877685417655366E-2</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9777,7 +9800,7 @@
       </c>
       <c r="Z102" s="50" cm="1">
         <f t="array" ref="Z102">_FV(A1,"Market cap",TRUE)</f>
-        <v>45368912713</v>
+        <v>44261587684</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9846,7 +9869,7 @@
       </c>
       <c r="Z103" s="47">
         <f>Z102/Z104</f>
-        <v>0.97864488310739906</v>
+        <v>0.97812231458234467</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9917,7 +9940,7 @@
       </c>
       <c r="Z104" s="51">
         <f>Z100+Z102</f>
-        <v>46358912713</v>
+        <v>45251587684</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -10118,7 +10141,7 @@
       </c>
       <c r="Z106" s="55">
         <f>(Z101*Z93)+(Z103*Z98)</f>
-        <v>8.7217002461774537E-2</v>
+        <v>8.7105976584910275E-2</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -10209,7 +10232,7 @@
       <c r="V108" s="52"/>
       <c r="W108" s="58">
         <f>W107*(1+Z108)/(Z109-Z108)</f>
-        <v>46985548713.891251</v>
+        <v>47069544039.828629</v>
       </c>
       <c r="X108" s="59" t="s">
         <v>141</v>
@@ -10240,7 +10263,7 @@
       </c>
       <c r="W109" s="58">
         <f>W108+W107</f>
-        <v>49837548713.891251</v>
+        <v>49921544039.828629</v>
       </c>
       <c r="X109" s="59" t="s">
         <v>137</v>
@@ -10250,7 +10273,7 @@
       </c>
       <c r="Z109" s="36">
         <f>Z106</f>
-        <v>8.7217002461774537E-2</v>
+        <v>8.7105976584910275E-2</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="19" x14ac:dyDescent="0.2">
@@ -10271,7 +10294,7 @@
       </c>
       <c r="T111" s="50">
         <f>NPV(Z109,S109,T109,U109,V109,W109)</f>
-        <v>38696438289.54454</v>
+        <v>38770110249.935539</v>
       </c>
       <c r="U111" s="44"/>
       <c r="V111" s="44"/>
@@ -10316,7 +10339,7 @@
       </c>
       <c r="T114" s="50">
         <f>T111+T112-T113</f>
-        <v>40258138289.54454</v>
+        <v>40331810249.935539</v>
       </c>
       <c r="U114" s="44"/>
       <c r="V114" s="44"/>
@@ -10346,7 +10369,7 @@
       </c>
       <c r="T116" s="64">
         <f>T114/T115</f>
-        <v>54.491536612251451</v>
+        <v>54.591255538597949</v>
       </c>
       <c r="U116" s="44"/>
       <c r="V116" s="44"/>
@@ -10361,7 +10384,7 @@
       </c>
       <c r="T117" s="65" cm="1">
         <f t="array" ref="T117">_FV(A1,"Price",TRUE)</f>
-        <v>57.77</v>
+        <v>56.36</v>
       </c>
       <c r="U117" s="44"/>
       <c r="V117" s="44"/>
@@ -10376,7 +10399,7 @@
       </c>
       <c r="T118" s="66">
         <f>T116/T117-1</f>
-        <v>-5.6750275017284912E-2</v>
+        <v>-3.138297482970287E-2</v>
       </c>
       <c r="U118" s="44"/>
       <c r="V118" s="44"/>

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACE9F4E-D5F5-7649-BCBC-4285E847B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713E188-0311-994E-A860-65E03DB9B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2544,6 +2544,7 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
@@ -2567,14 +2568,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2585,6 +2586,7 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2712,11 +2714,11 @@
     <v>Powered by Refinitiv</v>
     <v>81.239999999999995</v>
     <v>42.610100000000003</v>
-    <v>1.1366000000000001</v>
-    <v>-1.41</v>
-    <v>-2.4407000000000002E-2</v>
-    <v>-0.02</v>
-    <v>-3.5490000000000001E-4</v>
+    <v>1.1416999999999999</v>
+    <v>-0.22</v>
+    <v>-3.9329999999999999E-3</v>
+    <v>0.48</v>
+    <v>8.6150000000000011E-3</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
     <v>13677</v>
@@ -2724,25 +2726,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>57.94</v>
+    <v>56.42</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.998633471878</v>
+    <v>45225.996870693751</v>
     <v>0</v>
-    <v>55.92</v>
-    <v>44261587684</v>
+    <v>55.454999999999998</v>
+    <v>43758972068</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>57.91</v>
-    <v>43.334800000000001</v>
-    <v>57.77</v>
-    <v>56.36</v>
-    <v>56.34</v>
+    <v>56</v>
+    <v>41.962000000000003</v>
+    <v>55.94</v>
+    <v>55.72</v>
+    <v>56.2</v>
     <v>785336900</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>6500862</v>
-    <v>5549180</v>
+    <v>5490516</v>
+    <v>5474637</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -3330,10 +3332,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
+      <selection pane="bottomRight" activeCell="P114" sqref="P114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4489,20 +4491,20 @@
         <v>3507000000</v>
       </c>
       <c r="X16" s="18">
-        <f>SUM(N35:R35)/5</f>
-        <v>-2.3148733624502274E-2</v>
+        <f>AVERAGE(O35:S35)</f>
+        <v>-2.0224123849649087E-2</v>
       </c>
       <c r="Y16" s="28">
         <f>Z102/R3</f>
-        <v>9.3675317849735453</v>
+        <v>9.2611581096296298</v>
       </c>
       <c r="Z16" s="28">
         <f>Z102/R28</f>
-        <v>51.647126819136524</v>
+        <v>51.060644186697786</v>
       </c>
       <c r="AA16" s="29">
         <f>Z102/R107</f>
-        <v>30.546299298826778</v>
+        <v>30.199428618357487</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -4705,15 +4707,15 @@
       </c>
       <c r="Y19" s="28">
         <f>Z102/S3</f>
-        <v>8.1965903118518515</v>
+        <v>8.1035133459259256</v>
       </c>
       <c r="Z19" s="28">
         <f>Z102/S28</f>
-        <v>36.731608036514523</v>
+        <v>36.314499641493775</v>
       </c>
       <c r="AA19" s="29">
         <f>Z102/S107</f>
-        <v>33.179600962518741</v>
+        <v>32.802827637181409</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,7 +4959,7 @@
       </c>
       <c r="AA22" s="31">
         <f>S107/Z102</f>
-        <v>3.0139000198635531E-2</v>
+        <v>3.0485176798189136E-2</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5609,7 +5611,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -5664,8 +5666,12 @@
       <c r="R33" s="1">
         <v>791000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="S33" s="1" cm="1">
+        <f t="array" ref="S33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>785336900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -5720,8 +5726,12 @@
       <c r="R34" s="1">
         <v>791000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="1" cm="1">
+        <f t="array" ref="S34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>785336900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>104</v>
       </c>
@@ -5783,15 +5793,19 @@
         <v>-4.1714285714285718E-2</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" ref="Q35:R35" si="44">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35:S35" si="44">(Q34-P34)/P34</f>
         <v>-3.5778175313059034E-3</v>
       </c>
       <c r="R35" s="19">
         <f t="shared" si="44"/>
         <v>-5.3261520047875523E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="S35" s="19">
+        <f t="shared" si="44"/>
+        <v>-7.1594184576485465E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -5847,7 +5861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -5901,7 +5915,7 @@
       </c>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -5957,7 +5971,7 @@
         <v>1683000000</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -6013,7 +6027,7 @@
         <v>528000000</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -6069,7 +6083,7 @@
         <v>2211000000</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -6125,7 +6139,7 @@
         <v>1262000000</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -6181,7 +6195,7 @@
         <v>265000000</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -6237,7 +6251,7 @@
         <v>73000000</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -6293,7 +6307,7 @@
         <v>3810000000</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -6349,7 +6363,7 @@
         <v>899000000</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -6405,7 +6419,7 @@
         <v>128000000</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -6461,7 +6475,7 @@
         <v>56000000</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -9321,7 +9335,7 @@
       </c>
       <c r="Z95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9390,7 +9404,7 @@
       </c>
       <c r="Z96" s="49" cm="1">
         <f t="array" ref="Z96">_FV(A1,"Beta")</f>
-        <v>1.1366000000000001</v>
+        <v>1.1416999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9527,7 +9541,7 @@
       </c>
       <c r="Z98" s="47">
         <f>(Z95)+((Z96)*(Z97-Z95))</f>
-        <v>8.8660792000000016E-2</v>
+        <v>8.9044520000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9731,7 +9745,7 @@
       </c>
       <c r="Z101" s="47">
         <f>Z100/Z104</f>
-        <v>2.1877685417655366E-2</v>
+        <v>2.2123413214846767E-2</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9800,7 +9814,7 @@
       </c>
       <c r="Z102" s="50" cm="1">
         <f t="array" ref="Z102">_FV(A1,"Market cap",TRUE)</f>
-        <v>44261587684</v>
+        <v>43758972068</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9869,7 +9883,7 @@
       </c>
       <c r="Z103" s="47">
         <f>Z102/Z104</f>
-        <v>0.97812231458234467</v>
+        <v>0.97787658678515321</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9940,7 +9954,7 @@
       </c>
       <c r="Z104" s="51">
         <f>Z100+Z102</f>
-        <v>45251587684</v>
+        <v>44748972068</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -10141,7 +10155,7 @@
       </c>
       <c r="Z106" s="55">
         <f>(Z101*Z93)+(Z103*Z98)</f>
-        <v>8.7105976584910275E-2</v>
+        <v>8.746375169316882E-2</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -10232,7 +10246,7 @@
       <c r="V108" s="52"/>
       <c r="W108" s="58">
         <f>W107*(1+Z108)/(Z109-Z108)</f>
-        <v>47069544039.828629</v>
+        <v>46799942698.922112</v>
       </c>
       <c r="X108" s="59" t="s">
         <v>141</v>
@@ -10263,7 +10277,7 @@
       </c>
       <c r="W109" s="58">
         <f>W108+W107</f>
-        <v>49921544039.828629</v>
+        <v>49651942698.922112</v>
       </c>
       <c r="X109" s="59" t="s">
         <v>137</v>
@@ -10273,7 +10287,7 @@
       </c>
       <c r="Z109" s="36">
         <f>Z106</f>
-        <v>8.7105976584910275E-2</v>
+        <v>8.746375169316882E-2</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="19" x14ac:dyDescent="0.2">
@@ -10294,7 +10308,7 @@
       </c>
       <c r="T111" s="50">
         <f>NPV(Z109,S109,T109,U109,V109,W109)</f>
-        <v>38770110249.935539</v>
+        <v>38533650517.345261</v>
       </c>
       <c r="U111" s="44"/>
       <c r="V111" s="44"/>
@@ -10339,7 +10353,7 @@
       </c>
       <c r="T114" s="50">
         <f>T111+T112-T113</f>
-        <v>40331810249.935539</v>
+        <v>40095350517.345261</v>
       </c>
       <c r="U114" s="44"/>
       <c r="V114" s="44"/>
@@ -10354,7 +10368,7 @@
       </c>
       <c r="T115" s="62">
         <f>Q34*(1+(5*X16))</f>
-        <v>738796165.28364182</v>
+        <v>751013722.61809099</v>
       </c>
       <c r="U115" s="44"/>
       <c r="V115" s="44"/>
@@ -10369,7 +10383,7 @@
       </c>
       <c r="T116" s="64">
         <f>T114/T115</f>
-        <v>54.591255538597949</v>
+        <v>53.388306111864132</v>
       </c>
       <c r="U116" s="44"/>
       <c r="V116" s="44"/>
@@ -10384,7 +10398,7 @@
       </c>
       <c r="T117" s="65" cm="1">
         <f t="array" ref="T117">_FV(A1,"Price",TRUE)</f>
-        <v>56.36</v>
+        <v>55.72</v>
       </c>
       <c r="U117" s="44"/>
       <c r="V117" s="44"/>
@@ -10399,7 +10413,7 @@
       </c>
       <c r="T118" s="66">
         <f>T116/T117-1</f>
-        <v>-3.138297482970287E-2</v>
+        <v>-4.1846623979466369E-2</v>
       </c>
       <c r="U118" s="44"/>
       <c r="V118" s="44"/>

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827C6261-7A84-EF4F-8A7A-F9425C7005CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39417D6-4BED-E04C-87F2-CC90426318DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="251">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1204,12 +1207,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1390,47 +1516,14 @@
     <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1441,25 +1534,7 @@
     <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1467,9 +1542,6 @@
     </xf>
     <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1479,9 +1551,6 @@
     </xf>
     <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1514,7 +1583,85 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1551,6 +1698,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1568,7 +1716,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1579,6 +1727,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1705,35 +1854,38 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>81.239999999999995</v>
-    <v>42.610100000000003</v>
-    <v>1.1451</v>
-    <v>0.28000000000000003</v>
-    <v>4.8859999999999997E-3</v>
+    <v>44.12</v>
+    <v>1.1054999999999999</v>
+    <v>-0.56999999999999995</v>
+    <v>-1.1346E-2</v>
+    <v>-0.33</v>
+    <v>-6.6439999999999997E-3</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
-    <v>13677</v>
+    <v>13618</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>58.19</v>
+    <v>50.96</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.9998939</v>
+    <v>45240.033150000003</v>
     <v>0</v>
-    <v>57.145000000000003</v>
-    <v>45227552071</v>
+    <v>49.63</v>
+    <v>39007683823</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>57.34</v>
-    <v>39.684100000000001</v>
-    <v>57.31</v>
-    <v>57.59</v>
+    <v>50.51</v>
+    <v>34.619399999999999</v>
+    <v>50.24</v>
+    <v>49.67</v>
+    <v>49.34</v>
     <v>785336900</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>127828</v>
-    <v>5755146</v>
+    <v>9651259</v>
+    <v>8500318</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -1765,6 +1917,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1785,6 +1939,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1801,7 +1956,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1812,13 +1967,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1884,13 +2042,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1935,6 +2099,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1942,6 +2109,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -13834,8 +14004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFC6049-3D8A-FA4F-B5C9-58CF36B4E2CA}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13843,48 +14013,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="e" vm="1">
+    <row r="1" spans="1:16" s="93" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-    </row>
-    <row r="2" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+    </row>
+    <row r="2" spans="1:16" s="93" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>45227552071</v>
+        <v>39007683823</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>201</v>
@@ -13911,8 +14081,8 @@
         <v>204</v>
       </c>
       <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>46607392008.895569</v>
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>47534573983.913498</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>205</v>
@@ -13920,10 +14090,10 @@
       <c r="K3" s="40"/>
       <c r="L3" s="41"/>
       <c r="M3" s="42"/>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="114"/>
+      <c r="O3" s="95"/>
       <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -13956,8 +14126,8 @@
         <v>210</v>
       </c>
       <c r="I4" s="49">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>38344596505.17643</v>
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>39157816455.700943</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>211</v>
@@ -13970,10 +14140,10 @@
         <v>212</v>
       </c>
       <c r="M4" s="42"/>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="116"/>
+      <c r="O4" s="97"/>
       <c r="P4" s="42"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -13992,7 +14162,7 @@
         <v>215</v>
       </c>
       <c r="E5" s="45">
-        <f>SUM(C15:E15)/3</f>
+        <f>SUM(C16:E16)/3</f>
         <v>0.27135112166986536</v>
       </c>
       <c r="F5" s="46" t="s">
@@ -14007,14 +14177,14 @@
       </c>
       <c r="I5" s="49">
         <f>I4+G5-G6</f>
-        <v>40666796505.17643</v>
+        <v>41480016455.700943</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="52" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>57.59</v>
+        <v>49.67</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>219</v>
@@ -14032,7 +14202,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>8.3739218794667654</v>
+        <v>7.2223076880207371</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>221</v>
@@ -14060,14 +14230,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>8.7589856978979364E-2</v>
+        <v>8.6369015340017827E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="58">
         <f>I5/G4</f>
-        <v>56.005904876542068</v>
+        <v>57.125863248158204</v>
       </c>
       <c r="L6" s="59" t="s">
         <v>225</v>
@@ -14085,14 +14255,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62">
         <f>O20/F12</f>
-        <v>37.533238233195021</v>
+        <v>32.37152184481328</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="64">
-        <f>F14/A3</f>
-        <v>2.9517405627089086E-2</v>
+        <f>F15/A3</f>
+        <v>3.4224026375358575E-2</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>228</v>
@@ -14119,7 +14289,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-2.7506426870254175E-2</v>
+        <v>0.15010797761542594</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>231</v>
@@ -14158,37 +14328,37 @@
       <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77">
+      <c r="A9" s="101"/>
+      <c r="B9" s="102">
         <v>2019</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="102">
         <v>2020</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="102">
         <v>2021</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="103">
         <v>2022</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="104">
         <v>2023</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="105">
         <v>2024</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="105">
         <v>2025</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="105">
         <v>2026</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="106">
         <v>2027</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="60" t="s">
         <v>233</v>
       </c>
@@ -14199,37 +14369,37 @@
       <c r="P9" s="42"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="108">
         <v>2156200000</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="108">
         <v>2594400000</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="108">
         <v>3342200000</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="109">
         <v>4417400000</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="108">
         <v>5401000000</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="108">
         <v>6357000000</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="108">
         <v>7500000000</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="108">
         <v>9052000000</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="109">
         <v>10435000000</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="110" t="s">
         <v>235</v>
       </c>
       <c r="N10" s="60" t="s">
@@ -14242,568 +14412,626 @@
       <c r="P10" s="42"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87">
+      <c r="A11" s="111"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.20322790093683341</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="77">
         <f t="shared" si="0"/>
         <v>0.28823620104841186</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="77">
         <f t="shared" si="0"/>
         <v>0.32170426665070906</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="78">
         <f t="shared" si="0"/>
         <v>0.22266491601394489</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="77">
         <f t="shared" si="0"/>
         <v>0.17700425847065349</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="77">
         <f t="shared" si="0"/>
         <v>0.17980179329872592</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="77">
         <f t="shared" si="0"/>
         <v>0.20693333333333341</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="112">
         <f t="shared" si="0"/>
         <v>0.15278391515687151</v>
       </c>
-      <c r="K11" s="89">
+      <c r="K11" s="112">
         <f>SUM(F11:J11)/5</f>
         <v>0.18783764325470584</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
       <c r="N11" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="79">
         <f>O9/O10</f>
         <v>6.9816873773708307E-2</v>
       </c>
       <c r="P11" s="42"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="108">
         <v>326500000</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="108">
         <v>488500000</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="108">
         <v>606800000</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="108">
         <v>857300000</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="113">
         <v>1205000000</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="108">
         <v>1430000000</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="108">
         <v>1747000000</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="108">
         <v>2100000000</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="109">
         <v>2450000000</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="91" t="s">
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="92">
+      <c r="O12" s="81">
         <f>O8*(1-O11)</f>
         <v>1.8016257463477053E-2</v>
       </c>
       <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87">
+      <c r="A13" s="111"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.4961715160796325</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="77">
         <f t="shared" si="1"/>
         <v>0.24216990788126913</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="77">
         <f t="shared" si="1"/>
         <v>0.4128213579433091</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="78">
         <f t="shared" si="1"/>
         <v>0.40557564446518146</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="77">
         <f t="shared" si="1"/>
         <v>0.18672199170124482</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="77">
         <f t="shared" si="1"/>
         <v>0.22167832167832158</v>
       </c>
-      <c r="I13" s="87">
+      <c r="I13" s="77">
         <f t="shared" si="1"/>
         <v>0.20206067544361761</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="112">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="112">
         <f>SUM(F13:J13)/5</f>
         <v>0.23654065999100643</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="115" t="s">
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="116"/>
+      <c r="O13" s="97"/>
       <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="83">
-        <v>715800000</v>
-      </c>
-      <c r="C14" s="83">
-        <v>957800000</v>
-      </c>
-      <c r="D14" s="83">
-        <v>1218365675</v>
-      </c>
-      <c r="E14" s="83">
-        <v>1466819780</v>
-      </c>
-      <c r="F14" s="84">
-        <v>1335000000</v>
-      </c>
-      <c r="G14" s="83">
-        <v>1578000000</v>
-      </c>
-      <c r="H14" s="83">
-        <v>1950000000</v>
-      </c>
-      <c r="I14" s="83">
-        <v>2474000000</v>
-      </c>
-      <c r="J14" s="83">
-        <v>2846000000</v>
-      </c>
-      <c r="K14" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="A14" s="115" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="116">
+        <f>B12/B10</f>
+        <v>0.15142380113162043</v>
+      </c>
+      <c r="C14" s="116">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.18829016342892382</v>
+      </c>
+      <c r="D14" s="116">
+        <f t="shared" si="2"/>
+        <v>0.18155705822512117</v>
+      </c>
+      <c r="E14" s="116">
+        <f t="shared" si="2"/>
+        <v>0.19407343686331327</v>
+      </c>
+      <c r="F14" s="117">
+        <f t="shared" si="2"/>
+        <v>0.22310683206813553</v>
+      </c>
+      <c r="G14" s="116">
+        <f t="shared" si="2"/>
+        <v>0.22494887525562371</v>
+      </c>
+      <c r="H14" s="116">
+        <f t="shared" si="2"/>
+        <v>0.23293333333333333</v>
+      </c>
+      <c r="I14" s="116">
+        <f t="shared" si="2"/>
+        <v>0.23199292973928415</v>
+      </c>
+      <c r="J14" s="118">
+        <f t="shared" si="2"/>
+        <v>0.23478677527551509</v>
+      </c>
+      <c r="K14" s="118"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
       <c r="N14" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="79">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5080000000000002E-2</v>
       </c>
       <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
-        <v>0.33808326348141948</v>
-      </c>
-      <c r="D15" s="87">
-        <f t="shared" si="2"/>
-        <v>0.27204601691376062</v>
-      </c>
-      <c r="E15" s="87">
-        <f t="shared" si="2"/>
-        <v>0.20392408461441591</v>
-      </c>
-      <c r="F15" s="88">
-        <f t="shared" si="2"/>
-        <v>-8.9867740943607943E-2</v>
-      </c>
-      <c r="G15" s="87">
-        <f t="shared" si="2"/>
-        <v>0.18202247191011245</v>
-      </c>
-      <c r="H15" s="87">
-        <f t="shared" si="2"/>
-        <v>0.23574144486692017</v>
-      </c>
-      <c r="I15" s="87">
-        <f t="shared" si="2"/>
-        <v>0.26871794871794874</v>
-      </c>
-      <c r="J15" s="87">
-        <f t="shared" si="2"/>
-        <v>0.15036378334680678</v>
-      </c>
-      <c r="K15" s="89">
-        <f>SUM(F15:J15)/5</f>
-        <v>0.14939558157963603</v>
-      </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="A15" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="108">
+        <v>715800000</v>
+      </c>
+      <c r="C15" s="108">
+        <v>957800000</v>
+      </c>
+      <c r="D15" s="108">
+        <v>1218365675</v>
+      </c>
+      <c r="E15" s="108">
+        <v>1466819780</v>
+      </c>
+      <c r="F15" s="113">
+        <v>1335000000</v>
+      </c>
+      <c r="G15" s="108">
+        <v>1578000000</v>
+      </c>
+      <c r="H15" s="108">
+        <v>1950000000</v>
+      </c>
+      <c r="I15" s="108">
+        <v>2474000000</v>
+      </c>
+      <c r="J15" s="109">
+        <v>2846000000</v>
+      </c>
+      <c r="K15" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="94" cm="1">
+      <c r="O15" s="82" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1451</v>
+        <v>1.1054999999999999</v>
       </c>
       <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="95">
-        <v>0.19528708676904455</v>
-      </c>
-      <c r="C16" s="95">
-        <v>0.43072429906542054</v>
-      </c>
-      <c r="D16" s="95">
-        <v>0.27107118871725988</v>
-      </c>
-      <c r="E16" s="95">
-        <v>1.021091986455982</v>
-      </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77">
+        <f>(C15/B15)-1</f>
+        <v>0.33808326348141948</v>
+      </c>
+      <c r="D16" s="77">
+        <f>(D15/C15)-1</f>
+        <v>0.27204601691376062</v>
+      </c>
+      <c r="E16" s="77">
+        <f>(E15/D15)-1</f>
+        <v>0.20392408461441591</v>
+      </c>
+      <c r="F16" s="78">
+        <f>(F15/E15)-1</f>
+        <v>-8.9867740943607943E-2</v>
+      </c>
+      <c r="G16" s="77">
+        <f>(G15/F15)-1</f>
+        <v>0.18202247191011245</v>
+      </c>
+      <c r="H16" s="77">
+        <f>(H15/G15)-1</f>
+        <v>0.23574144486692017</v>
+      </c>
+      <c r="I16" s="77">
+        <f>(I15/H15)-1</f>
+        <v>0.26871794871794874</v>
+      </c>
+      <c r="J16" s="112">
+        <f>(J15/I15)-1</f>
+        <v>0.15036378334680678</v>
+      </c>
+      <c r="K16" s="112">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.14939558157963603</v>
+      </c>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="79">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="100" t="s">
+      <c r="A17" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="116">
+        <f>B15/B10</f>
+        <v>0.33197291531397832</v>
+      </c>
+      <c r="C17" s="116">
+        <f t="shared" ref="C17:J17" si="3">C15/C10</f>
+        <v>0.36917977181621953</v>
+      </c>
+      <c r="D17" s="116">
+        <f t="shared" si="3"/>
+        <v>0.36454002603075819</v>
+      </c>
+      <c r="E17" s="118">
+        <f t="shared" si="3"/>
+        <v>0.33205500520668269</v>
+      </c>
+      <c r="F17" s="116">
+        <f t="shared" si="3"/>
+        <v>0.24717644880577672</v>
+      </c>
+      <c r="G17" s="116">
+        <f t="shared" si="3"/>
+        <v>0.24823029731005192</v>
+      </c>
+      <c r="H17" s="116">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="I17" s="116">
+        <f t="shared" si="3"/>
+        <v>0.27330976579761379</v>
+      </c>
+      <c r="J17" s="118">
+        <f t="shared" si="3"/>
+        <v>0.27273598466698612</v>
+      </c>
+      <c r="K17" s="118"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="101">
+      <c r="O17" s="84">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.9114775000000007E-2</v>
+        <v>8.810606E-2</v>
       </c>
       <c r="P17" s="42"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="115" t="s">
+      <c r="A18" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="121">
+        <v>0.19528708676904455</v>
+      </c>
+      <c r="C18" s="121">
+        <v>0.43072429906542054</v>
+      </c>
+      <c r="D18" s="121">
+        <v>0.27107118871725988</v>
+      </c>
+      <c r="E18" s="121">
+        <v>1.021091986455982</v>
+      </c>
+      <c r="F18" s="122"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="116"/>
+      <c r="O18" s="97"/>
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="106" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="117" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2000</v>
-      </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
       <c r="N19" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="103">
+      <c r="O19" s="85">
         <f>O6+O7</f>
         <v>991300000</v>
       </c>
       <c r="P19" s="42"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="106" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
-        <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
-      </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
       <c r="N20" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="103" cm="1">
+      <c r="O20" s="85" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>45227552071</v>
+        <v>39007683823</v>
       </c>
       <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="M21" s="81"/>
+      <c r="A21" s="99" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2000</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="103">
+      <c r="O21" s="85">
         <f>O19+O20</f>
-        <v>46218852071</v>
+        <v>39998983823</v>
       </c>
       <c r="P21" s="42"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
+      <c r="A22" s="99" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
+        <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
       <c r="N22" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="104">
+      <c r="O22" s="86">
         <f>(O19/O21)</f>
-        <v>2.1447958042687752E-2</v>
+        <v>2.4783129601157219E-2</v>
       </c>
       <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="100" t="s">
+      <c r="A23" s="99"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="105">
+      <c r="O23" s="87">
         <f>O20/O21</f>
-        <v>0.97855204195731227</v>
+        <v>0.97521687039884275</v>
       </c>
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="107" t="s">
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="108"/>
+      <c r="O24" s="89"/>
       <c r="P24" s="42"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="109">
+      <c r="A25" s="99"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="90">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.7589856978979364E-2</v>
-      </c>
-      <c r="O25" s="110"/>
+        <v>8.6369015340017827E-2</v>
+      </c>
+      <c r="O25" s="91"/>
       <c r="P25" s="42"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
     </row>
@@ -14844,526 +15072,526 @@
       <c r="P32" s="42"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="81"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="81"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="81"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="81"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="81"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="81"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="81"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="81"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="81"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
+      <c r="A57" s="76"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="81"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="81"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="81"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="76"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
+      <c r="A61" s="76"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="76"/>
+      <c r="O61" s="76"/>
+      <c r="P61" s="76"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O62" s="42"/>
@@ -15563,7 +15791,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15571,8 +15798,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:FTNT/explorer/revenue_proj" xr:uid="{0D4A711B-6C2E-7C4B-B830-98B812097216}"/>

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39417D6-4BED-E04C-87F2-CC90426318DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76AE454-DD46-1C48-B912-03D8E1C550C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -983,6 +986,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1066,7 +1075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1104,94 +1113,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1330,12 +1251,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1396,125 +1436,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1522,25 +1449,202 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,119 +1653,44 @@
     <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1699,6 +1728,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1716,7 +1746,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1728,6 +1758,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1855,11 +1886,11 @@
     <v>Powered by Refinitiv</v>
     <v>81.239999999999995</v>
     <v>44.12</v>
-    <v>1.1054999999999999</v>
-    <v>-0.56999999999999995</v>
-    <v>-1.1346E-2</v>
-    <v>-0.33</v>
-    <v>-6.6439999999999997E-3</v>
+    <v>1.0552999999999999</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-1.3320000000000001E-3</v>
+    <v>0.06</v>
+    <v>1.1429999999999999E-3</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
     <v>13618</v>
@@ -1867,25 +1898,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>50.96</v>
+    <v>52.7</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45240.033150000003</v>
+    <v>45262.025985092187</v>
     <v>0</v>
-    <v>49.63</v>
-    <v>39007683823</v>
+    <v>51.69</v>
+    <v>40307574904</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>50.51</v>
-    <v>34.619399999999999</v>
-    <v>50.24</v>
-    <v>49.67</v>
-    <v>49.34</v>
-    <v>785336900</v>
+    <v>52.048000000000002</v>
+    <v>36.2181</v>
+    <v>52.56</v>
+    <v>52.49</v>
+    <v>52.55</v>
+    <v>767909600</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>9651259</v>
-    <v>8500318</v>
+    <v>7175496</v>
+    <v>8961645</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2050,9 +2081,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2497,9 +2528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O172" sqref="O172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14004,8 +14035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFC6049-3D8A-FA4F-B5C9-58CF36B4E2CA}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14013,1781 +14044,1787 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="93" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="e" vm="1">
+    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-    </row>
-    <row r="2" spans="1:16" s="93" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+    </row>
+    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="64" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>39007683823</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>40307574904</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="66">
         <f>Financials!O8*0.01</f>
         <v>0.76260000000000006</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="66">
         <f>SUM(C11:E11)/3</f>
         <v>0.27105612287865144</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="68">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>-1.5081596198290147E-2</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="69">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>47534573983.913498</v>
-      </c>
-      <c r="J3" s="35" t="s">
+        <v>48908774139.388443</v>
+      </c>
+      <c r="J3" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="94" t="s">
+      <c r="K3" s="71">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="42"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
+      <c r="A4" s="73">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>2322200000</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="36">
         <f>Financials!O17*0.01</f>
         <v>0.23500000000000001</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.38372092730140356</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="76">
         <f>A5*(1+(5*G3))</f>
-        <v>726116229.97291517</v>
-      </c>
-      <c r="H4" s="48" t="s">
+        <v>710003087.48004746</v>
+      </c>
+      <c r="H4" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>39157816455.700943</v>
-      </c>
-      <c r="J4" s="46" t="s">
+        <v>40363506886.55439</v>
+      </c>
+      <c r="J4" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="50">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="96" t="s">
+      <c r="K4" s="77" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>-1.3320000000000001E-3</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="97"/>
-      <c r="P4" s="42"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" cm="1">
+      <c r="A5" s="73" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>785336900</v>
-      </c>
-      <c r="B5" s="44" t="s">
+        <v>767909600</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="51">
-        <f>Financials!O34*0.01</f>
-        <v>0.21239999999999998</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="36">
+        <f>F14</f>
+        <v>0.22310683206813553</v>
+      </c>
+      <c r="D5" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="36">
         <f>SUM(C16:E16)/3</f>
         <v>0.27135112166986536</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="76">
         <f>Financials!O56</f>
         <v>3313500000</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>41480016455.700943</v>
-      </c>
-      <c r="J5" s="46" t="s">
+        <v>42685706886.55439</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="52" cm="1">
+      <c r="K5" s="80" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>49.67</v>
-      </c>
-      <c r="L5" s="35" t="s">
+        <v>52.49</v>
+      </c>
+      <c r="L5" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="53" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="98">
         <f>Financials!O21</f>
         <v>19200000</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55">
+      <c r="A6" s="82">
         <f>O20/F10</f>
-        <v>7.2223076880207371</v>
-      </c>
-      <c r="B6" s="44" t="s">
+        <v>7.4629836889464913</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="45">
-        <f>Financials!O190</f>
-        <v>0.40014426096719863</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="36">
+        <f>F17</f>
+        <v>0.24717644880577672</v>
+      </c>
+      <c r="D6" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="36">
         <f>Financials!O33/Financials!O126</f>
         <v>3.2982565379825655</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="76">
         <f>Financials!O96+Financials!O105</f>
         <v>991300000</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="77">
         <f>N25</f>
-        <v>8.6369015340017827E-2</v>
-      </c>
-      <c r="J6" s="48" t="s">
+        <v>8.464471715619401E-2</v>
+      </c>
+      <c r="J6" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="83">
         <f>I5/G4</f>
-        <v>57.125863248158204</v>
-      </c>
-      <c r="L6" s="59" t="s">
+        <v>60.120452487122385</v>
+      </c>
+      <c r="L6" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="60" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="98">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85">
         <f>O20/F12</f>
-        <v>32.37152184481328</v>
-      </c>
-      <c r="B7" s="63" t="s">
+        <v>33.450269629875521</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="87">
         <f>F15/A3</f>
-        <v>3.4224026375358575E-2</v>
-      </c>
-      <c r="D7" s="65" t="s">
+        <v>3.3120325476775798E-2</v>
+      </c>
+      <c r="D7" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="88">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.66988571428571431</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="89">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>3.086239103362391</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="91">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="93">
         <f>K6/K5-1</f>
-        <v>0.15010797761542594</v>
-      </c>
-      <c r="L7" s="72" t="s">
+        <v>0.14536964159120558</v>
+      </c>
+      <c r="L7" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="60" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="98">
         <f>Financials!O105</f>
         <v>991300000</v>
       </c>
-      <c r="P7" s="42"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="74" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="100">
         <f>O5/(O6+O7)</f>
         <v>1.9368506002219309E-2</v>
       </c>
-      <c r="P8" s="42"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42">
         <v>2019</v>
       </c>
-      <c r="C9" s="102">
+      <c r="C9" s="42">
         <v>2020</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="42">
         <v>2021</v>
       </c>
-      <c r="E9" s="103">
+      <c r="E9" s="43">
         <v>2022</v>
       </c>
-      <c r="F9" s="104">
+      <c r="F9" s="44">
         <v>2023</v>
       </c>
-      <c r="G9" s="105">
+      <c r="G9" s="45">
         <v>2024</v>
       </c>
-      <c r="H9" s="105">
+      <c r="H9" s="45">
         <v>2025</v>
       </c>
-      <c r="I9" s="105">
+      <c r="I9" s="45">
         <v>2026</v>
       </c>
-      <c r="J9" s="106">
+      <c r="J9" s="46">
         <v>2027</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="60" t="s">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="98">
         <f>Financials!O25</f>
         <v>85400000</v>
       </c>
-      <c r="P9" s="42"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="48">
         <v>2156200000</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="48">
         <v>2594400000</v>
       </c>
-      <c r="D10" s="108">
+      <c r="D10" s="48">
         <v>3342200000</v>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="49">
         <v>4417400000</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F10" s="48">
         <v>5401000000</v>
       </c>
-      <c r="G10" s="108">
+      <c r="G10" s="48">
         <v>6357000000</v>
       </c>
-      <c r="H10" s="108">
+      <c r="H10" s="48">
         <v>7500000000</v>
       </c>
-      <c r="I10" s="108">
+      <c r="I10" s="48">
         <v>9052000000</v>
       </c>
-      <c r="J10" s="109">
+      <c r="J10" s="49">
         <v>10435000000</v>
       </c>
-      <c r="K10" s="110" t="s">
+      <c r="K10" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="L10" s="37"/>
+      <c r="N10" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="98">
         <f>Financials!O24</f>
         <v>1223200000</v>
       </c>
-      <c r="P10" s="42"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77">
+      <c r="A11" s="51"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.20322790093683341</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
         <v>0.28823620104841186</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="38">
         <f t="shared" si="0"/>
         <v>0.32170426665070906</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="39">
         <f t="shared" si="0"/>
         <v>0.22266491601394489</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>0.17700425847065349</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="38">
         <f t="shared" si="0"/>
         <v>0.17980179329872592</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>0.20693333333333341</v>
       </c>
-      <c r="J11" s="112">
+      <c r="J11" s="52">
         <f t="shared" si="0"/>
         <v>0.15278391515687151</v>
       </c>
-      <c r="K11" s="112">
+      <c r="K11" s="52">
         <f>SUM(F11:J11)/5</f>
         <v>0.18783764325470584</v>
       </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="60" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="79">
+      <c r="O11" s="101">
         <f>O9/O10</f>
         <v>6.9816873773708307E-2</v>
       </c>
-      <c r="P11" s="42"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="48">
         <v>326500000</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="48">
         <v>488500000</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="48">
         <v>606800000</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="48">
         <v>857300000</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="53">
         <v>1205000000</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="48">
         <v>1430000000</v>
       </c>
-      <c r="H12" s="108">
+      <c r="H12" s="48">
         <v>1747000000</v>
       </c>
-      <c r="I12" s="108">
+      <c r="I12" s="48">
         <v>2100000000</v>
       </c>
-      <c r="J12" s="109">
+      <c r="J12" s="49">
         <v>2450000000</v>
       </c>
-      <c r="K12" s="114" t="s">
+      <c r="K12" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="80" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="81">
+      <c r="O12" s="101">
         <f>O8*(1-O11)</f>
         <v>1.8016257463477053E-2</v>
       </c>
-      <c r="P12" s="42"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="111"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77">
+      <c r="A13" s="51"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.4961715160796325</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="38">
         <f t="shared" si="1"/>
         <v>0.24216990788126913</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="38">
         <f t="shared" si="1"/>
         <v>0.4128213579433091</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="39">
         <f t="shared" si="1"/>
         <v>0.40557564446518146</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="38">
         <f t="shared" si="1"/>
         <v>0.18672199170124482</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="38">
         <f t="shared" si="1"/>
         <v>0.22167832167832158</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="38">
         <f t="shared" si="1"/>
         <v>0.20206067544361761</v>
       </c>
-      <c r="J13" s="112">
+      <c r="J13" s="52">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="K13" s="112">
+      <c r="K13" s="52">
         <f>SUM(F13:J13)/5</f>
         <v>0.23654065999100643</v>
       </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="96" t="s">
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="97"/>
-      <c r="P13" s="42"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="116">
+      <c r="B14" s="55">
         <f>B12/B10</f>
         <v>0.15142380113162043</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="55">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>0.18829016342892382</v>
       </c>
-      <c r="D14" s="116">
+      <c r="D14" s="55">
         <f t="shared" si="2"/>
         <v>0.18155705822512117</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="55">
         <f t="shared" si="2"/>
         <v>0.19407343686331327</v>
       </c>
-      <c r="F14" s="117">
+      <c r="F14" s="56">
         <f t="shared" si="2"/>
         <v>0.22310683206813553</v>
       </c>
-      <c r="G14" s="116">
+      <c r="G14" s="55">
         <f t="shared" si="2"/>
         <v>0.22494887525562371</v>
       </c>
-      <c r="H14" s="116">
+      <c r="H14" s="55">
         <f t="shared" si="2"/>
         <v>0.23293333333333333</v>
       </c>
-      <c r="I14" s="116">
+      <c r="I14" s="55">
         <f t="shared" si="2"/>
         <v>0.23199292973928415</v>
       </c>
-      <c r="J14" s="118">
+      <c r="J14" s="57">
         <f t="shared" si="2"/>
         <v>0.23478677527551509</v>
       </c>
-      <c r="K14" s="118"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="60" t="s">
+      <c r="K14" s="57"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="79">
+      <c r="O14" s="101">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
-      </c>
-      <c r="P14" s="42"/>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="48">
         <v>715800000</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="48">
         <v>957800000</v>
       </c>
-      <c r="D15" s="108">
+      <c r="D15" s="48">
         <v>1218365675</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="48">
         <v>1466819780</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="53">
         <v>1335000000</v>
       </c>
-      <c r="G15" s="108">
+      <c r="G15" s="48">
         <v>1578000000</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="48">
         <v>1950000000</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="48">
         <v>2474000000</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="49">
         <v>2846000000</v>
       </c>
-      <c r="K15" s="114" t="s">
+      <c r="K15" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="60" t="s">
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="82" cm="1">
+      <c r="O15" s="102" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1054999999999999</v>
-      </c>
-      <c r="P15" s="42"/>
+        <v>1.0552999999999999</v>
+      </c>
+      <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="119"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77">
-        <f>(C15/B15)-1</f>
+      <c r="A16" s="58"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.33808326348141948</v>
       </c>
-      <c r="D16" s="77">
-        <f>(D15/C15)-1</f>
+      <c r="D16" s="38">
+        <f t="shared" si="3"/>
         <v>0.27204601691376062</v>
       </c>
-      <c r="E16" s="77">
-        <f>(E15/D15)-1</f>
+      <c r="E16" s="38">
+        <f t="shared" si="3"/>
         <v>0.20392408461441591</v>
       </c>
-      <c r="F16" s="78">
-        <f>(F15/E15)-1</f>
+      <c r="F16" s="39">
+        <f t="shared" si="3"/>
         <v>-8.9867740943607943E-2</v>
       </c>
-      <c r="G16" s="77">
-        <f>(G15/F15)-1</f>
+      <c r="G16" s="38">
+        <f t="shared" si="3"/>
         <v>0.18202247191011245</v>
       </c>
-      <c r="H16" s="77">
-        <f>(H15/G15)-1</f>
+      <c r="H16" s="38">
+        <f t="shared" si="3"/>
         <v>0.23574144486692017</v>
       </c>
-      <c r="I16" s="77">
-        <f>(I15/H15)-1</f>
+      <c r="I16" s="38">
+        <f t="shared" si="3"/>
         <v>0.26871794871794874</v>
       </c>
-      <c r="J16" s="112">
-        <f>(J15/I15)-1</f>
+      <c r="J16" s="52">
+        <f t="shared" si="3"/>
         <v>0.15036378334680678</v>
       </c>
-      <c r="K16" s="112">
+      <c r="K16" s="52">
         <f>SUM(F16:J16)/5</f>
         <v>0.14939558157963603</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="60" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="79">
+      <c r="O16" s="101">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="42"/>
+      <c r="P16" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="116">
+      <c r="B17" s="55">
         <f>B15/B10</f>
         <v>0.33197291531397832</v>
       </c>
-      <c r="C17" s="116">
-        <f t="shared" ref="C17:J17" si="3">C15/C10</f>
+      <c r="C17" s="55">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.36917977181621953</v>
       </c>
-      <c r="D17" s="116">
-        <f t="shared" si="3"/>
+      <c r="D17" s="55">
+        <f t="shared" si="4"/>
         <v>0.36454002603075819</v>
       </c>
-      <c r="E17" s="118">
-        <f t="shared" si="3"/>
+      <c r="E17" s="57">
+        <f t="shared" si="4"/>
         <v>0.33205500520668269</v>
       </c>
-      <c r="F17" s="116">
-        <f t="shared" si="3"/>
+      <c r="F17" s="55">
+        <f t="shared" si="4"/>
         <v>0.24717644880577672</v>
       </c>
-      <c r="G17" s="116">
-        <f t="shared" si="3"/>
+      <c r="G17" s="55">
+        <f t="shared" si="4"/>
         <v>0.24823029731005192</v>
       </c>
-      <c r="H17" s="116">
-        <f t="shared" si="3"/>
+      <c r="H17" s="55">
+        <f t="shared" si="4"/>
         <v>0.26</v>
       </c>
-      <c r="I17" s="116">
-        <f t="shared" si="3"/>
+      <c r="I17" s="55">
+        <f t="shared" si="4"/>
         <v>0.27330976579761379</v>
       </c>
-      <c r="J17" s="118">
-        <f t="shared" si="3"/>
+      <c r="J17" s="57">
+        <f t="shared" si="4"/>
         <v>0.27273598466698612</v>
       </c>
-      <c r="K17" s="118"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="83" t="s">
+      <c r="K17" s="57"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="84">
+      <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.810606E-2</v>
-      </c>
-      <c r="P17" s="42"/>
+        <v>8.6283337000000002E-2</v>
+      </c>
+      <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="60">
         <v>0.19528708676904455</v>
       </c>
-      <c r="C18" s="121">
+      <c r="C18" s="60">
         <v>0.43072429906542054</v>
       </c>
-      <c r="D18" s="121">
+      <c r="D18" s="60">
         <v>0.27107118871725988</v>
       </c>
-      <c r="E18" s="121">
+      <c r="E18" s="60">
         <v>1.021091986455982</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="96" t="s">
+      <c r="F18" s="61"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="116" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="97"/>
-      <c r="P18" s="42"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="60" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="85">
+      <c r="O19" s="105">
         <f>O6+O7</f>
         <v>991300000</v>
       </c>
-      <c r="P19" s="42"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="60" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="85" cm="1">
+      <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>39007683823</v>
-      </c>
-      <c r="P20" s="42"/>
+        <v>40307574904</v>
+      </c>
+      <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99" t="str" cm="1">
+      <c r="A21" s="118" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100" cm="1">
+      <c r="B21" s="118"/>
+      <c r="C21" s="119" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2000</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="60" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="85">
+      <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>39998983823</v>
-      </c>
-      <c r="P21" s="42"/>
+        <v>41298874904</v>
+      </c>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99" t="str" cm="1">
+      <c r="A22" s="118" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="74" t="s">
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="86">
+      <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>2.4783129601157219E-2</v>
-      </c>
-      <c r="P22" s="42"/>
+        <v>2.4003075200094318E-2</v>
+      </c>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="83" t="s">
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="87">
+      <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.97521687039884275</v>
-      </c>
-      <c r="P23" s="42"/>
+        <v>0.97599692479990563</v>
+      </c>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="88" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="89"/>
-      <c r="P24" s="42"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="90">
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.6369015340017827E-2</v>
-      </c>
-      <c r="O25" s="91"/>
-      <c r="P25" s="42"/>
+        <v>8.464471715619401E-2</v>
+      </c>
+      <c r="O25" s="111"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="76"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="76"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="76"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="76"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="76"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="76"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="76"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="76"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="76"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="76"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="76"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="76"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="76"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="42"/>
-      <c r="P71" s="42"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="42"/>
-      <c r="P83" s="42"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="42"/>
-      <c r="P85" s="42"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="42"/>
-      <c r="P90" s="42"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="42"/>
-      <c r="P91" s="42"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="42"/>
-      <c r="P92" s="42"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="42"/>
-      <c r="P93" s="42"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="42"/>
-      <c r="P95" s="42"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="42"/>
-      <c r="P96" s="42"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="42"/>
-      <c r="P97" s="42"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="42"/>
-      <c r="P99" s="42"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="42"/>
-      <c r="P100" s="42"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="42"/>
-      <c r="P101" s="42"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="42"/>
-      <c r="P102" s="42"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="42"/>
-      <c r="P103" s="42"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="42"/>
-      <c r="P104" s="42"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="42"/>
-      <c r="P105" s="42"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="42"/>
-      <c r="P106" s="42"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="42"/>
-      <c r="P108" s="42"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="42"/>
-      <c r="P109" s="42"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="42"/>
-      <c r="P110" s="42"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Technology/Software/Fortinet.xlsx
+++ b/Technology/Software/Fortinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76AE454-DD46-1C48-B912-03D8E1C550C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390732F-7C07-154C-A374-B03DF148CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1727,6 +1727,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1746,7 +1748,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1759,6 +1761,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1886,11 +1890,11 @@
     <v>Powered by Refinitiv</v>
     <v>81.239999999999995</v>
     <v>44.12</v>
-    <v>1.0552999999999999</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-1.3320000000000001E-3</v>
-    <v>0.06</v>
-    <v>1.1429999999999999E-3</v>
+    <v>1.0781000000000001</v>
+    <v>0.84</v>
+    <v>1.6368000000000001E-2</v>
+    <v>0.32</v>
+    <v>6.1350000000000007E-3</v>
     <v>USD</v>
     <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
     <v>13618</v>
@@ -1898,25 +1902,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>52.7</v>
+    <v>52.36</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.025985092187</v>
+    <v>45269.041404803123</v>
     <v>0</v>
-    <v>51.69</v>
-    <v>40307574904</v>
+    <v>50.97</v>
+    <v>40054164736</v>
     <v>FORTINET, INC.</v>
     <v>FORTINET, INC.</v>
-    <v>52.048000000000002</v>
-    <v>36.2181</v>
-    <v>52.56</v>
-    <v>52.49</v>
-    <v>52.55</v>
+    <v>51.14</v>
+    <v>35.363599999999998</v>
+    <v>51.32</v>
+    <v>52.16</v>
+    <v>52.48</v>
     <v>767909600</v>
     <v>FTNT</v>
     <v>FORTINET, INC. (XNAS:FTNT)</v>
-    <v>7175496</v>
-    <v>8961645</v>
+    <v>4620508</v>
+    <v>8971085</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -14036,7 +14040,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14085,7 +14089,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>40307574904</v>
+        <v>40054164736</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>201</v>
@@ -14113,7 +14117,7 @@
       </c>
       <c r="I3" s="69">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>48908774139.388443</v>
+        <v>48084152823.33419</v>
       </c>
       <c r="J3" s="70" t="s">
         <v>205</v>
@@ -14163,14 +14167,14 @@
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>40363506886.55439</v>
+        <v>39639948602.059029</v>
       </c>
       <c r="J4" s="75" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="77" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.3320000000000001E-3</v>
+        <v>1.6368000000000001E-2</v>
       </c>
       <c r="L4" s="78" t="s">
         <v>251</v>
@@ -14213,14 +14217,14 @@
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>42685706886.55439</v>
+        <v>41962148602.059029</v>
       </c>
       <c r="J5" s="75" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="80" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>52.49</v>
+        <v>52.16</v>
       </c>
       <c r="L5" s="81" t="s">
         <v>219</v>
@@ -14238,7 +14242,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="82">
         <f>O20/F10</f>
-        <v>7.4629836889464913</v>
+        <v>7.4160645687835585</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>221</v>
@@ -14266,14 +14270,14 @@
       </c>
       <c r="I6" s="77">
         <f>N25</f>
-        <v>8.464471715619401E-2</v>
+        <v>8.5667596884110436E-2</v>
       </c>
       <c r="J6" s="75" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="83">
         <f>I5/G4</f>
-        <v>60.120452487122385</v>
+        <v>59.101360743361909</v>
       </c>
       <c r="L6" s="84" t="s">
         <v>225</v>
@@ -14291,14 +14295,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85">
         <f>O20/F12</f>
-        <v>33.450269629875521</v>
+        <v>33.239970735269708</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="87">
         <f>F15/A3</f>
-        <v>3.3120325476775798E-2</v>
+        <v>3.3329867413266136E-2</v>
       </c>
       <c r="D7" s="86" t="s">
         <v>228</v>
@@ -14325,7 +14329,7 @@
       </c>
       <c r="K7" s="93">
         <f>K6/K5-1</f>
-        <v>0.14536964159120558</v>
+        <v>0.13307823511046601</v>
       </c>
       <c r="L7" s="94" t="s">
         <v>231</v>
@@ -14638,7 +14642,7 @@
       </c>
       <c r="O14" s="101">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
@@ -14683,7 +14687,7 @@
       </c>
       <c r="O15" s="102" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0552999999999999</v>
+        <v>1.0781000000000001</v>
       </c>
       <c r="P15" s="34"/>
     </row>
@@ -14784,7 +14788,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6283337000000002E-2</v>
+        <v>8.7341899000000001E-2</v>
       </c>
       <c r="P17" s="34"/>
     </row>
@@ -14860,7 +14864,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>40307574904</v>
+        <v>40054164736</v>
       </c>
       <c r="P20" s="34"/>
     </row>
@@ -14888,7 +14892,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>41298874904</v>
+        <v>41045464736</v>
       </c>
       <c r="P21" s="34"/>
     </row>
@@ -14914,7 +14918,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>2.4003075200094318E-2</v>
+        <v>2.4151267536521626E-2</v>
       </c>
       <c r="P22" s="34"/>
     </row>
@@ -14937,7 +14941,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.97599692479990563</v>
+        <v>0.97584873246347836</v>
       </c>
       <c r="P23" s="34"/>
     </row>
@@ -14977,7 +14981,7 @@
       <c r="M25" s="37"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.464471715619401E-2</v>
+        <v>8.5667596884110436E-2</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="34"/>
